--- a/public/docs/datas/f1.xlsx
+++ b/public/docs/datas/f1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\vue_platform\public\docs\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199DBFB4-03F0-4C73-BEAD-72E76B1DA83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802A72DC-761B-4495-A779-034FBE1DB563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18588" yWindow="1824" windowWidth="26124" windowHeight="22536" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4692" yWindow="1776" windowWidth="26124" windowHeight="22536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rounds" sheetId="1" r:id="rId1"/>
@@ -1705,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE98A03A-8BBD-4D33-889D-72E5D2A17E08}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2430,6 +2430,12 @@
       <c r="D32" s="1">
         <v>45793</v>
       </c>
+      <c r="E32" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="G32">
         <v>0</v>
       </c>
@@ -2447,6 +2453,12 @@
       <c r="D33" s="1">
         <v>45793</v>
       </c>
+      <c r="E33" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
       <c r="G33">
         <v>0</v>
       </c>
@@ -2464,6 +2476,12 @@
       <c r="D34" s="1">
         <v>45794</v>
       </c>
+      <c r="E34" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.8125</v>
+      </c>
       <c r="G34">
         <v>0</v>
       </c>
@@ -2481,6 +2499,12 @@
       <c r="D35" s="1">
         <v>45794</v>
       </c>
+      <c r="E35" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G35">
         <v>1</v>
       </c>
@@ -2497,6 +2521,9 @@
       </c>
       <c r="D36" s="1">
         <v>45795</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.875</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3957,7 +3984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247AF3E6-8BD7-40DE-ACC7-21D4F916BD21}">
   <dimension ref="A1:R321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+    <sheetView topLeftCell="A271" workbookViewId="0">
       <selection activeCell="L310" sqref="L310"/>
     </sheetView>
   </sheetViews>

--- a/public/docs/datas/f1.xlsx
+++ b/public/docs/datas/f1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\vue_platform\public\docs\datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\vue_platform\public\docs\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802A72DC-761B-4495-A779-034FBE1DB563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4500F7-776D-4AB2-8E17-C75F6B5DE1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4692" yWindow="1776" windowWidth="26124" windowHeight="22536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1224" yWindow="972" windowWidth="19128" windowHeight="19140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rounds" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="202">
   <si>
     <t>year</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -719,6 +719,69 @@
   </si>
   <si>
     <t>DNS</t>
+  </si>
+  <si>
+    <t>Franco Colapinto</t>
+  </si>
+  <si>
+    <t> Verstappen</t>
+  </si>
+  <si>
+    <t> Norris</t>
+  </si>
+  <si>
+    <t> Piastri</t>
+  </si>
+  <si>
+    <t> Hamilton</t>
+  </si>
+  <si>
+    <t> Albon</t>
+  </si>
+  <si>
+    <t> Leclerc</t>
+  </si>
+  <si>
+    <t> Russell</t>
+  </si>
+  <si>
+    <t> Sainz</t>
+  </si>
+  <si>
+    <t> Hadjar</t>
+  </si>
+  <si>
+    <t> Tsunoda</t>
+  </si>
+  <si>
+    <t> Alonso</t>
+  </si>
+  <si>
+    <t> Hulkenberg</t>
+  </si>
+  <si>
+    <t> Gasly</t>
+  </si>
+  <si>
+    <t> Lawson</t>
+  </si>
+  <si>
+    <t> Stroll</t>
+  </si>
+  <si>
+    <t> Colapinto</t>
+  </si>
+  <si>
+    <t> Bearman</t>
+  </si>
+  <si>
+    <t> Bortoleto</t>
+  </si>
+  <si>
+    <t> Antonelli</t>
+  </si>
+  <si>
+    <t> Ocon</t>
   </si>
 </sst>
 </file>
@@ -781,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -803,6 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1705,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE98A03A-8BBD-4D33-889D-72E5D2A17E08}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3982,10 +4046,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247AF3E6-8BD7-40DE-ACC7-21D4F916BD21}">
-  <dimension ref="A1:R321"/>
+  <dimension ref="A1:R421"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="L310" sqref="L310"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12576,9 +12640,2599 @@
       <c r="P321" s="5"/>
       <c r="Q321" s="5"/>
     </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>2025</v>
+      </c>
+      <c r="B322">
+        <v>7</v>
+      </c>
+      <c r="C322" t="s">
+        <v>12</v>
+      </c>
+      <c r="D322" s="5">
+        <v>1</v>
+      </c>
+      <c r="E322" s="5">
+        <v>81</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G322" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>2025</v>
+      </c>
+      <c r="B323">
+        <v>7</v>
+      </c>
+      <c r="C323" t="s">
+        <v>12</v>
+      </c>
+      <c r="D323" s="5">
+        <v>2</v>
+      </c>
+      <c r="E323" s="5">
+        <v>1</v>
+      </c>
+      <c r="F323" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G323" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N323" s="6"/>
+      <c r="O323" s="6"/>
+      <c r="P323" s="6"/>
+      <c r="Q323" s="5"/>
+    </row>
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>2025</v>
+      </c>
+      <c r="B324">
+        <v>7</v>
+      </c>
+      <c r="C324" t="s">
+        <v>12</v>
+      </c>
+      <c r="D324" s="5">
+        <v>3</v>
+      </c>
+      <c r="E324" s="5">
+        <v>63</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N324" s="6"/>
+      <c r="O324" s="6"/>
+      <c r="P324" s="6"/>
+      <c r="Q324" s="5"/>
+    </row>
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>2025</v>
+      </c>
+      <c r="B325">
+        <v>7</v>
+      </c>
+      <c r="C325" t="s">
+        <v>12</v>
+      </c>
+      <c r="D325" s="5">
+        <v>4</v>
+      </c>
+      <c r="E325" s="5">
+        <v>4</v>
+      </c>
+      <c r="F325" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G325" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N325" s="6"/>
+      <c r="O325" s="6"/>
+      <c r="P325" s="6"/>
+      <c r="Q325" s="5"/>
+    </row>
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>2025</v>
+      </c>
+      <c r="B326">
+        <v>7</v>
+      </c>
+      <c r="C326" t="s">
+        <v>12</v>
+      </c>
+      <c r="D326" s="5">
+        <v>5</v>
+      </c>
+      <c r="E326" s="5">
+        <v>14</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G326" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N326" s="6"/>
+      <c r="O326" s="6"/>
+      <c r="P326" s="6"/>
+      <c r="Q326" s="5"/>
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>2025</v>
+      </c>
+      <c r="B327">
+        <v>7</v>
+      </c>
+      <c r="C327" t="s">
+        <v>12</v>
+      </c>
+      <c r="D327" s="5">
+        <v>6</v>
+      </c>
+      <c r="E327" s="5">
+        <v>55</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G327" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N327" s="6"/>
+      <c r="O327" s="6"/>
+      <c r="P327" s="6"/>
+      <c r="Q327" s="5"/>
+    </row>
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>2025</v>
+      </c>
+      <c r="B328">
+        <v>7</v>
+      </c>
+      <c r="C328" t="s">
+        <v>12</v>
+      </c>
+      <c r="D328" s="5">
+        <v>7</v>
+      </c>
+      <c r="E328" s="5">
+        <v>23</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N328" s="6"/>
+      <c r="O328" s="6"/>
+      <c r="P328" s="6"/>
+      <c r="Q328" s="5"/>
+    </row>
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>2025</v>
+      </c>
+      <c r="B329">
+        <v>7</v>
+      </c>
+      <c r="C329" t="s">
+        <v>12</v>
+      </c>
+      <c r="D329" s="5">
+        <v>8</v>
+      </c>
+      <c r="E329" s="5">
+        <v>18</v>
+      </c>
+      <c r="F329" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G329" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N329" s="6"/>
+      <c r="O329" s="6"/>
+      <c r="P329" s="6"/>
+      <c r="Q329" s="5"/>
+    </row>
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>2025</v>
+      </c>
+      <c r="B330">
+        <v>7</v>
+      </c>
+      <c r="C330" t="s">
+        <v>12</v>
+      </c>
+      <c r="D330" s="5">
+        <v>9</v>
+      </c>
+      <c r="E330" s="5">
+        <v>6</v>
+      </c>
+      <c r="F330" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G330" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N330" s="6"/>
+      <c r="O330" s="6"/>
+      <c r="P330" s="6"/>
+      <c r="Q330" s="5"/>
+    </row>
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>2025</v>
+      </c>
+      <c r="B331">
+        <v>7</v>
+      </c>
+      <c r="C331" t="s">
+        <v>12</v>
+      </c>
+      <c r="D331" s="5">
+        <v>10</v>
+      </c>
+      <c r="E331" s="5">
+        <v>10</v>
+      </c>
+      <c r="F331" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G331" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N331" s="6"/>
+      <c r="O331" s="6"/>
+      <c r="P331" s="6"/>
+      <c r="Q331" s="5"/>
+    </row>
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>2025</v>
+      </c>
+      <c r="B332">
+        <v>7</v>
+      </c>
+      <c r="C332" t="s">
+        <v>12</v>
+      </c>
+      <c r="D332" s="5">
+        <v>11</v>
+      </c>
+      <c r="E332" s="5">
+        <v>16</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G332" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N332" s="6"/>
+      <c r="O332" s="6"/>
+      <c r="P332" s="6"/>
+      <c r="Q332" s="5"/>
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>2025</v>
+      </c>
+      <c r="B333">
+        <v>7</v>
+      </c>
+      <c r="C333" t="s">
+        <v>12</v>
+      </c>
+      <c r="D333" s="5">
+        <v>12</v>
+      </c>
+      <c r="E333" s="5">
+        <v>44</v>
+      </c>
+      <c r="F333" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G333" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N333" s="6"/>
+      <c r="O333" s="6"/>
+      <c r="P333" s="5"/>
+      <c r="Q333" s="5"/>
+    </row>
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>2025</v>
+      </c>
+      <c r="B334">
+        <v>7</v>
+      </c>
+      <c r="C334" t="s">
+        <v>12</v>
+      </c>
+      <c r="D334" s="5">
+        <v>13</v>
+      </c>
+      <c r="E334" s="5">
+        <v>12</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G334" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N334" s="6"/>
+      <c r="O334" s="6"/>
+      <c r="P334" s="5"/>
+      <c r="Q334" s="5"/>
+    </row>
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>2025</v>
+      </c>
+      <c r="B335">
+        <v>7</v>
+      </c>
+      <c r="C335" t="s">
+        <v>12</v>
+      </c>
+      <c r="D335" s="5">
+        <v>14</v>
+      </c>
+      <c r="E335" s="5">
+        <v>5</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G335" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N335" s="6"/>
+      <c r="O335" s="6"/>
+      <c r="P335" s="5"/>
+      <c r="Q335" s="5"/>
+    </row>
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>2025</v>
+      </c>
+      <c r="B336">
+        <v>7</v>
+      </c>
+      <c r="C336" t="s">
+        <v>12</v>
+      </c>
+      <c r="D336" s="5">
+        <v>15</v>
+      </c>
+      <c r="E336" s="5">
+        <v>43</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G336" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N336" s="6"/>
+      <c r="O336" s="6"/>
+      <c r="P336" s="5"/>
+      <c r="Q336" s="5"/>
+    </row>
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2025</v>
+      </c>
+      <c r="B337">
+        <v>7</v>
+      </c>
+      <c r="C337" t="s">
+        <v>12</v>
+      </c>
+      <c r="D337" s="5">
+        <v>16</v>
+      </c>
+      <c r="E337" s="5">
+        <v>30</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G337" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N337" s="6"/>
+      <c r="O337" s="5"/>
+      <c r="P337" s="5"/>
+      <c r="Q337" s="5"/>
+    </row>
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>2025</v>
+      </c>
+      <c r="B338">
+        <v>7</v>
+      </c>
+      <c r="C338" t="s">
+        <v>12</v>
+      </c>
+      <c r="D338" s="5">
+        <v>17</v>
+      </c>
+      <c r="E338" s="5">
+        <v>27</v>
+      </c>
+      <c r="F338" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G338" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N338" s="6"/>
+      <c r="O338" s="5"/>
+      <c r="P338" s="5"/>
+      <c r="Q338" s="5"/>
+    </row>
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>2025</v>
+      </c>
+      <c r="B339">
+        <v>7</v>
+      </c>
+      <c r="C339" t="s">
+        <v>12</v>
+      </c>
+      <c r="D339" s="5">
+        <v>18</v>
+      </c>
+      <c r="E339" s="5">
+        <v>31</v>
+      </c>
+      <c r="F339" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G339" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N339" s="6"/>
+      <c r="O339" s="5"/>
+      <c r="P339" s="5"/>
+      <c r="Q339" s="5"/>
+    </row>
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>2025</v>
+      </c>
+      <c r="B340">
+        <v>7</v>
+      </c>
+      <c r="C340" t="s">
+        <v>12</v>
+      </c>
+      <c r="D340" s="5">
+        <v>19</v>
+      </c>
+      <c r="E340" s="5">
+        <v>87</v>
+      </c>
+      <c r="F340" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G340" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N340" s="6"/>
+      <c r="O340" s="5"/>
+      <c r="P340" s="5"/>
+      <c r="Q340" s="5"/>
+    </row>
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>2025</v>
+      </c>
+      <c r="B341">
+        <v>7</v>
+      </c>
+      <c r="C341" t="s">
+        <v>12</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E341" s="5">
+        <v>22</v>
+      </c>
+      <c r="F341" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G341" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N341" s="6"/>
+      <c r="O341" s="5"/>
+      <c r="P341" s="5"/>
+      <c r="Q341" s="5"/>
+    </row>
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A342" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B342" s="9">
+        <v>7</v>
+      </c>
+      <c r="C342" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D342" s="9">
+        <v>1</v>
+      </c>
+      <c r="E342" s="9">
+        <v>1</v>
+      </c>
+      <c r="F342" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G342" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H342" s="10">
+        <v>25</v>
+      </c>
+      <c r="N342" s="6"/>
+      <c r="O342" s="5"/>
+      <c r="P342" s="5"/>
+      <c r="Q342" s="5"/>
+    </row>
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A343" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B343" s="9">
+        <v>7</v>
+      </c>
+      <c r="C343" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D343" s="9">
+        <v>2</v>
+      </c>
+      <c r="E343" s="9">
+        <v>4</v>
+      </c>
+      <c r="F343" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G343" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H343" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A344" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B344" s="9">
+        <v>7</v>
+      </c>
+      <c r="C344" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D344" s="9">
+        <v>3</v>
+      </c>
+      <c r="E344" s="9">
+        <v>81</v>
+      </c>
+      <c r="F344" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G344" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H344" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A345" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B345" s="9">
+        <v>7</v>
+      </c>
+      <c r="C345" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D345" s="9">
+        <v>4</v>
+      </c>
+      <c r="E345" s="9">
+        <v>44</v>
+      </c>
+      <c r="F345" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G345" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H345" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A346" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B346" s="9">
+        <v>7</v>
+      </c>
+      <c r="C346" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D346" s="9">
+        <v>5</v>
+      </c>
+      <c r="E346" s="9">
+        <v>23</v>
+      </c>
+      <c r="F346" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G346" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H346" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A347" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B347" s="9">
+        <v>7</v>
+      </c>
+      <c r="C347" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D347" s="9">
+        <v>6</v>
+      </c>
+      <c r="E347" s="9">
+        <v>16</v>
+      </c>
+      <c r="F347" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G347" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H347" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A348" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B348" s="9">
+        <v>7</v>
+      </c>
+      <c r="C348" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D348" s="9">
+        <v>7</v>
+      </c>
+      <c r="E348" s="9">
+        <v>63</v>
+      </c>
+      <c r="F348" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G348" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H348" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A349" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B349" s="9">
+        <v>7</v>
+      </c>
+      <c r="C349" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D349" s="9">
+        <v>8</v>
+      </c>
+      <c r="E349" s="9">
+        <v>55</v>
+      </c>
+      <c r="F349" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G349" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H349" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A350" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B350" s="9">
+        <v>7</v>
+      </c>
+      <c r="C350" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D350" s="9">
+        <v>9</v>
+      </c>
+      <c r="E350" s="9">
+        <v>6</v>
+      </c>
+      <c r="F350" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G350" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H350" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A351" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B351" s="9">
+        <v>7</v>
+      </c>
+      <c r="C351" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D351" s="9">
+        <v>10</v>
+      </c>
+      <c r="E351" s="9">
+        <v>22</v>
+      </c>
+      <c r="F351" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G351" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H351" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A352" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B352" s="9">
+        <v>7</v>
+      </c>
+      <c r="C352" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D352" s="9">
+        <v>11</v>
+      </c>
+      <c r="E352" s="9">
+        <v>14</v>
+      </c>
+      <c r="F352" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G352" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H352" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A353" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B353" s="9">
+        <v>7</v>
+      </c>
+      <c r="C353" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D353" s="9">
+        <v>12</v>
+      </c>
+      <c r="E353" s="9">
+        <v>27</v>
+      </c>
+      <c r="F353" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G353" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H353" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A354" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B354" s="9">
+        <v>7</v>
+      </c>
+      <c r="C354" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D354" s="9">
+        <v>13</v>
+      </c>
+      <c r="E354" s="9">
+        <v>10</v>
+      </c>
+      <c r="F354" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G354" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H354" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A355" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B355" s="9">
+        <v>7</v>
+      </c>
+      <c r="C355" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D355" s="9">
+        <v>14</v>
+      </c>
+      <c r="E355" s="9">
+        <v>30</v>
+      </c>
+      <c r="F355" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G355" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H355" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A356" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B356" s="9">
+        <v>7</v>
+      </c>
+      <c r="C356" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D356" s="9">
+        <v>15</v>
+      </c>
+      <c r="E356" s="9">
+        <v>18</v>
+      </c>
+      <c r="F356" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G356" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H356" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A357" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B357" s="9">
+        <v>7</v>
+      </c>
+      <c r="C357" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D357" s="9">
+        <v>16</v>
+      </c>
+      <c r="E357" s="9">
+        <v>43</v>
+      </c>
+      <c r="F357" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G357" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H357" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A358" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B358" s="9">
+        <v>7</v>
+      </c>
+      <c r="C358" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D358" s="9">
+        <v>17</v>
+      </c>
+      <c r="E358" s="9">
+        <v>87</v>
+      </c>
+      <c r="F358" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G358" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H358" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A359" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B359" s="9">
+        <v>7</v>
+      </c>
+      <c r="C359" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D359" s="9">
+        <v>18</v>
+      </c>
+      <c r="E359" s="9">
+        <v>5</v>
+      </c>
+      <c r="F359" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G359" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H359" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A360" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B360" s="9">
+        <v>7</v>
+      </c>
+      <c r="C360" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D360" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E360" s="9">
+        <v>12</v>
+      </c>
+      <c r="F360" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G360" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H360" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A361" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B361" s="9">
+        <v>7</v>
+      </c>
+      <c r="C361" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D361" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E361" s="9">
+        <v>31</v>
+      </c>
+      <c r="F361" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G361" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H361" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>2025</v>
+      </c>
+      <c r="B362">
+        <v>8</v>
+      </c>
+      <c r="C362" t="s">
+        <v>12</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>4</v>
+      </c>
+      <c r="F362" t="s">
+        <v>183</v>
+      </c>
+      <c r="G362" t="s">
+        <v>18</v>
+      </c>
+      <c r="N362" s="8"/>
+      <c r="O362" s="8"/>
+      <c r="P362" s="8"/>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>2025</v>
+      </c>
+      <c r="B363">
+        <v>8</v>
+      </c>
+      <c r="C363" t="s">
+        <v>12</v>
+      </c>
+      <c r="D363">
+        <v>2</v>
+      </c>
+      <c r="E363">
+        <v>16</v>
+      </c>
+      <c r="F363" t="s">
+        <v>187</v>
+      </c>
+      <c r="G363" t="s">
+        <v>29</v>
+      </c>
+      <c r="N363" s="8"/>
+      <c r="O363" s="8"/>
+      <c r="P363" s="8"/>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>2025</v>
+      </c>
+      <c r="B364">
+        <v>8</v>
+      </c>
+      <c r="C364" t="s">
+        <v>12</v>
+      </c>
+      <c r="D364">
+        <v>3</v>
+      </c>
+      <c r="E364">
+        <v>81</v>
+      </c>
+      <c r="F364" t="s">
+        <v>184</v>
+      </c>
+      <c r="G364" t="s">
+        <v>18</v>
+      </c>
+      <c r="N364" s="8"/>
+      <c r="O364" s="8"/>
+      <c r="P364" s="8"/>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>2025</v>
+      </c>
+      <c r="B365">
+        <v>8</v>
+      </c>
+      <c r="C365" t="s">
+        <v>12</v>
+      </c>
+      <c r="D365">
+        <v>4</v>
+      </c>
+      <c r="E365">
+        <v>44</v>
+      </c>
+      <c r="F365" t="s">
+        <v>185</v>
+      </c>
+      <c r="G365" t="s">
+        <v>29</v>
+      </c>
+      <c r="N365" s="8"/>
+      <c r="O365" s="8"/>
+      <c r="P365" s="8"/>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>2025</v>
+      </c>
+      <c r="B366">
+        <v>8</v>
+      </c>
+      <c r="C366" t="s">
+        <v>12</v>
+      </c>
+      <c r="D366">
+        <v>5</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+      <c r="F366" t="s">
+        <v>182</v>
+      </c>
+      <c r="G366" t="s">
+        <v>21</v>
+      </c>
+      <c r="N366" s="8"/>
+      <c r="O366" s="8"/>
+      <c r="P366" s="8"/>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>2025</v>
+      </c>
+      <c r="B367">
+        <v>8</v>
+      </c>
+      <c r="C367" t="s">
+        <v>12</v>
+      </c>
+      <c r="D367">
+        <v>6</v>
+      </c>
+      <c r="E367">
+        <v>6</v>
+      </c>
+      <c r="F367" t="s">
+        <v>190</v>
+      </c>
+      <c r="G367" t="s">
+        <v>25</v>
+      </c>
+      <c r="N367" s="8"/>
+      <c r="O367" s="8"/>
+      <c r="P367" s="8"/>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>2025</v>
+      </c>
+      <c r="B368">
+        <v>8</v>
+      </c>
+      <c r="C368" t="s">
+        <v>12</v>
+      </c>
+      <c r="D368">
+        <v>7</v>
+      </c>
+      <c r="E368">
+        <v>14</v>
+      </c>
+      <c r="F368" t="s">
+        <v>192</v>
+      </c>
+      <c r="G368" t="s">
+        <v>36</v>
+      </c>
+      <c r="N368" s="8"/>
+      <c r="O368" s="8"/>
+      <c r="P368" s="8"/>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>2025</v>
+      </c>
+      <c r="B369">
+        <v>8</v>
+      </c>
+      <c r="C369" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369">
+        <v>8</v>
+      </c>
+      <c r="E369">
+        <v>31</v>
+      </c>
+      <c r="F369" t="s">
+        <v>201</v>
+      </c>
+      <c r="G369" t="s">
+        <v>45</v>
+      </c>
+      <c r="N369" s="8"/>
+      <c r="O369" s="8"/>
+      <c r="P369" s="8"/>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>2025</v>
+      </c>
+      <c r="B370">
+        <v>8</v>
+      </c>
+      <c r="C370" t="s">
+        <v>12</v>
+      </c>
+      <c r="D370">
+        <v>9</v>
+      </c>
+      <c r="E370">
+        <v>30</v>
+      </c>
+      <c r="F370" t="s">
+        <v>195</v>
+      </c>
+      <c r="G370" t="s">
+        <v>25</v>
+      </c>
+      <c r="N370" s="8"/>
+      <c r="O370" s="8"/>
+      <c r="P370" s="8"/>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>2025</v>
+      </c>
+      <c r="B371">
+        <v>8</v>
+      </c>
+      <c r="C371" t="s">
+        <v>12</v>
+      </c>
+      <c r="D371">
+        <v>10</v>
+      </c>
+      <c r="E371">
+        <v>23</v>
+      </c>
+      <c r="F371" t="s">
+        <v>186</v>
+      </c>
+      <c r="G371" t="s">
+        <v>27</v>
+      </c>
+      <c r="N371" s="8"/>
+      <c r="O371" s="8"/>
+      <c r="P371" s="8"/>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>2025</v>
+      </c>
+      <c r="B372">
+        <v>8</v>
+      </c>
+      <c r="C372" t="s">
+        <v>12</v>
+      </c>
+      <c r="D372">
+        <v>11</v>
+      </c>
+      <c r="E372">
+        <v>55</v>
+      </c>
+      <c r="F372" t="s">
+        <v>189</v>
+      </c>
+      <c r="G372" t="s">
+        <v>27</v>
+      </c>
+      <c r="N372" s="8"/>
+      <c r="O372" s="8"/>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>2025</v>
+      </c>
+      <c r="B373">
+        <v>8</v>
+      </c>
+      <c r="C373" t="s">
+        <v>12</v>
+      </c>
+      <c r="D373">
+        <v>12</v>
+      </c>
+      <c r="E373">
+        <v>22</v>
+      </c>
+      <c r="F373" t="s">
+        <v>191</v>
+      </c>
+      <c r="G373" t="s">
+        <v>21</v>
+      </c>
+      <c r="N373" s="8"/>
+      <c r="O373" s="8"/>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>2025</v>
+      </c>
+      <c r="B374">
+        <v>8</v>
+      </c>
+      <c r="C374" t="s">
+        <v>12</v>
+      </c>
+      <c r="D374">
+        <v>13</v>
+      </c>
+      <c r="E374">
+        <v>27</v>
+      </c>
+      <c r="F374" t="s">
+        <v>193</v>
+      </c>
+      <c r="G374" t="s">
+        <v>40</v>
+      </c>
+      <c r="N374" s="8"/>
+      <c r="O374" s="8"/>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>2025</v>
+      </c>
+      <c r="B375">
+        <v>8</v>
+      </c>
+      <c r="C375" t="s">
+        <v>12</v>
+      </c>
+      <c r="D375">
+        <v>14</v>
+      </c>
+      <c r="E375">
+        <v>63</v>
+      </c>
+      <c r="F375" t="s">
+        <v>188</v>
+      </c>
+      <c r="G375" t="s">
+        <v>23</v>
+      </c>
+      <c r="N375" s="8"/>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>2025</v>
+      </c>
+      <c r="B376">
+        <v>8</v>
+      </c>
+      <c r="C376" t="s">
+        <v>12</v>
+      </c>
+      <c r="D376">
+        <v>15</v>
+      </c>
+      <c r="E376">
+        <v>12</v>
+      </c>
+      <c r="F376" t="s">
+        <v>200</v>
+      </c>
+      <c r="G376" t="s">
+        <v>23</v>
+      </c>
+      <c r="N376" s="8"/>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>2025</v>
+      </c>
+      <c r="B377">
+        <v>8</v>
+      </c>
+      <c r="C377" t="s">
+        <v>12</v>
+      </c>
+      <c r="D377">
+        <v>16</v>
+      </c>
+      <c r="E377">
+        <v>5</v>
+      </c>
+      <c r="F377" t="s">
+        <v>199</v>
+      </c>
+      <c r="G377" t="s">
+        <v>40</v>
+      </c>
+      <c r="N377" s="8"/>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>2025</v>
+      </c>
+      <c r="B378">
+        <v>8</v>
+      </c>
+      <c r="C378" t="s">
+        <v>12</v>
+      </c>
+      <c r="D378">
+        <v>17</v>
+      </c>
+      <c r="E378">
+        <v>87</v>
+      </c>
+      <c r="F378" t="s">
+        <v>198</v>
+      </c>
+      <c r="G378" t="s">
+        <v>45</v>
+      </c>
+      <c r="N378" s="8"/>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>2025</v>
+      </c>
+      <c r="B379">
+        <v>8</v>
+      </c>
+      <c r="C379" t="s">
+        <v>12</v>
+      </c>
+      <c r="D379">
+        <v>18</v>
+      </c>
+      <c r="E379">
+        <v>10</v>
+      </c>
+      <c r="F379" t="s">
+        <v>194</v>
+      </c>
+      <c r="G379" t="s">
+        <v>32</v>
+      </c>
+      <c r="N379" s="8"/>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>2025</v>
+      </c>
+      <c r="B380">
+        <v>8</v>
+      </c>
+      <c r="C380" t="s">
+        <v>12</v>
+      </c>
+      <c r="D380">
+        <v>19</v>
+      </c>
+      <c r="E380">
+        <v>18</v>
+      </c>
+      <c r="F380" t="s">
+        <v>196</v>
+      </c>
+      <c r="G380" t="s">
+        <v>36</v>
+      </c>
+      <c r="N380" s="8"/>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>2025</v>
+      </c>
+      <c r="B381">
+        <v>8</v>
+      </c>
+      <c r="C381" t="s">
+        <v>12</v>
+      </c>
+      <c r="D381">
+        <v>20</v>
+      </c>
+      <c r="E381">
+        <v>43</v>
+      </c>
+      <c r="F381" t="s">
+        <v>197</v>
+      </c>
+      <c r="G381" t="s">
+        <v>32</v>
+      </c>
+      <c r="N381" s="8"/>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A382" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B382" s="9">
+        <v>8</v>
+      </c>
+      <c r="C382" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D382" s="9">
+        <v>1</v>
+      </c>
+      <c r="E382" s="9">
+        <v>4</v>
+      </c>
+      <c r="F382" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G382" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H382" s="9">
+        <v>25</v>
+      </c>
+      <c r="N382" s="8"/>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A383" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B383" s="9">
+        <v>8</v>
+      </c>
+      <c r="C383" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D383" s="9">
+        <v>2</v>
+      </c>
+      <c r="E383" s="9">
+        <v>16</v>
+      </c>
+      <c r="F383" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G383" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H383" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A384" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B384" s="9">
+        <v>8</v>
+      </c>
+      <c r="C384" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D384" s="9">
+        <v>3</v>
+      </c>
+      <c r="E384" s="9">
+        <v>81</v>
+      </c>
+      <c r="F384" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G384" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H384" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A385" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B385" s="9">
+        <v>8</v>
+      </c>
+      <c r="C385" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D385" s="9">
+        <v>4</v>
+      </c>
+      <c r="E385" s="9">
+        <v>1</v>
+      </c>
+      <c r="F385" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G385" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H385" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A386" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B386" s="9">
+        <v>8</v>
+      </c>
+      <c r="C386" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D386" s="9">
+        <v>5</v>
+      </c>
+      <c r="E386" s="9">
+        <v>44</v>
+      </c>
+      <c r="F386" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G386" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H386" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A387" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B387" s="9">
+        <v>8</v>
+      </c>
+      <c r="C387" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D387" s="9">
+        <v>6</v>
+      </c>
+      <c r="E387" s="9">
+        <v>6</v>
+      </c>
+      <c r="F387" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G387" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H387" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A388" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B388" s="9">
+        <v>8</v>
+      </c>
+      <c r="C388" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D388" s="9">
+        <v>7</v>
+      </c>
+      <c r="E388" s="9">
+        <v>31</v>
+      </c>
+      <c r="F388" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G388" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H388" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A389" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B389" s="9">
+        <v>8</v>
+      </c>
+      <c r="C389" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D389" s="9">
+        <v>8</v>
+      </c>
+      <c r="E389" s="9">
+        <v>30</v>
+      </c>
+      <c r="F389" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G389" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H389" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B390" s="9">
+        <v>8</v>
+      </c>
+      <c r="C390" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D390" s="9">
+        <v>9</v>
+      </c>
+      <c r="E390" s="9">
+        <v>23</v>
+      </c>
+      <c r="F390" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G390" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H390" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B391" s="9">
+        <v>8</v>
+      </c>
+      <c r="C391" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D391" s="9">
+        <v>10</v>
+      </c>
+      <c r="E391" s="9">
+        <v>55</v>
+      </c>
+      <c r="F391" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G391" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H391" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A392" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B392" s="9">
+        <v>8</v>
+      </c>
+      <c r="C392" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D392" s="9">
+        <v>11</v>
+      </c>
+      <c r="E392" s="9">
+        <v>63</v>
+      </c>
+      <c r="F392" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G392" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H392" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A393" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B393" s="9">
+        <v>8</v>
+      </c>
+      <c r="C393" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D393" s="9">
+        <v>12</v>
+      </c>
+      <c r="E393" s="9">
+        <v>87</v>
+      </c>
+      <c r="F393" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G393" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H393" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A394" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B394" s="9">
+        <v>8</v>
+      </c>
+      <c r="C394" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D394" s="9">
+        <v>13</v>
+      </c>
+      <c r="E394" s="9">
+        <v>43</v>
+      </c>
+      <c r="F394" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G394" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H394" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A395" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B395" s="9">
+        <v>8</v>
+      </c>
+      <c r="C395" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D395" s="9">
+        <v>14</v>
+      </c>
+      <c r="E395" s="9">
+        <v>5</v>
+      </c>
+      <c r="F395" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G395" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H395" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A396" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B396" s="9">
+        <v>8</v>
+      </c>
+      <c r="C396" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D396" s="9">
+        <v>15</v>
+      </c>
+      <c r="E396" s="9">
+        <v>18</v>
+      </c>
+      <c r="F396" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G396" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H396" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A397" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B397" s="9">
+        <v>8</v>
+      </c>
+      <c r="C397" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D397" s="9">
+        <v>16</v>
+      </c>
+      <c r="E397" s="9">
+        <v>27</v>
+      </c>
+      <c r="F397" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G397" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H397" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A398" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B398" s="9">
+        <v>8</v>
+      </c>
+      <c r="C398" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D398" s="9">
+        <v>17</v>
+      </c>
+      <c r="E398" s="9">
+        <v>22</v>
+      </c>
+      <c r="F398" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G398" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H398" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B399" s="9">
+        <v>8</v>
+      </c>
+      <c r="C399" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D399" s="9">
+        <v>18</v>
+      </c>
+      <c r="E399" s="9">
+        <v>12</v>
+      </c>
+      <c r="F399" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G399" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H399" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B400" s="9">
+        <v>8</v>
+      </c>
+      <c r="C400" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D400" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E400" s="9">
+        <v>14</v>
+      </c>
+      <c r="F400" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G400" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H400" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A401" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B401" s="9">
+        <v>8</v>
+      </c>
+      <c r="C401" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D401" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E401" s="9">
+        <v>10</v>
+      </c>
+      <c r="F401" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G401" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H401" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>2025</v>
+      </c>
+      <c r="B402">
+        <v>9</v>
+      </c>
+      <c r="C402" t="s">
+        <v>12</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+      <c r="E402">
+        <v>81</v>
+      </c>
+      <c r="F402" t="s">
+        <v>184</v>
+      </c>
+      <c r="G402" t="s">
+        <v>18</v>
+      </c>
+      <c r="M402" s="8"/>
+      <c r="N402" s="8"/>
+      <c r="O402" s="8"/>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>2025</v>
+      </c>
+      <c r="B403">
+        <v>9</v>
+      </c>
+      <c r="C403" t="s">
+        <v>12</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+      <c r="E403">
+        <v>4</v>
+      </c>
+      <c r="F403" t="s">
+        <v>183</v>
+      </c>
+      <c r="G403" t="s">
+        <v>18</v>
+      </c>
+      <c r="M403" s="8"/>
+      <c r="N403" s="8"/>
+      <c r="O403" s="8"/>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>2025</v>
+      </c>
+      <c r="B404">
+        <v>9</v>
+      </c>
+      <c r="C404" t="s">
+        <v>12</v>
+      </c>
+      <c r="D404">
+        <v>3</v>
+      </c>
+      <c r="E404">
+        <v>1</v>
+      </c>
+      <c r="F404" t="s">
+        <v>182</v>
+      </c>
+      <c r="G404" t="s">
+        <v>21</v>
+      </c>
+      <c r="M404" s="8"/>
+      <c r="N404" s="8"/>
+      <c r="O404" s="8"/>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>2025</v>
+      </c>
+      <c r="B405">
+        <v>9</v>
+      </c>
+      <c r="C405" t="s">
+        <v>12</v>
+      </c>
+      <c r="D405">
+        <v>4</v>
+      </c>
+      <c r="E405">
+        <v>63</v>
+      </c>
+      <c r="F405" t="s">
+        <v>188</v>
+      </c>
+      <c r="G405" t="s">
+        <v>23</v>
+      </c>
+      <c r="M405" s="8"/>
+      <c r="N405" s="8"/>
+      <c r="O405" s="8"/>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>2025</v>
+      </c>
+      <c r="B406">
+        <v>9</v>
+      </c>
+      <c r="C406" t="s">
+        <v>12</v>
+      </c>
+      <c r="D406">
+        <v>5</v>
+      </c>
+      <c r="E406">
+        <v>44</v>
+      </c>
+      <c r="F406" t="s">
+        <v>185</v>
+      </c>
+      <c r="G406" t="s">
+        <v>29</v>
+      </c>
+      <c r="M406" s="8"/>
+      <c r="N406" s="8"/>
+      <c r="O406" s="8"/>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>2025</v>
+      </c>
+      <c r="B407">
+        <v>9</v>
+      </c>
+      <c r="C407" t="s">
+        <v>12</v>
+      </c>
+      <c r="D407">
+        <v>6</v>
+      </c>
+      <c r="E407">
+        <v>12</v>
+      </c>
+      <c r="F407" t="s">
+        <v>200</v>
+      </c>
+      <c r="G407" t="s">
+        <v>23</v>
+      </c>
+      <c r="M407" s="8"/>
+      <c r="N407" s="8"/>
+      <c r="O407" s="8"/>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>2025</v>
+      </c>
+      <c r="B408">
+        <v>9</v>
+      </c>
+      <c r="C408" t="s">
+        <v>12</v>
+      </c>
+      <c r="D408">
+        <v>7</v>
+      </c>
+      <c r="E408">
+        <v>16</v>
+      </c>
+      <c r="F408" t="s">
+        <v>187</v>
+      </c>
+      <c r="G408" t="s">
+        <v>29</v>
+      </c>
+      <c r="M408" s="8"/>
+      <c r="N408" s="8"/>
+      <c r="O408" s="8"/>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>2025</v>
+      </c>
+      <c r="B409">
+        <v>9</v>
+      </c>
+      <c r="C409" t="s">
+        <v>12</v>
+      </c>
+      <c r="D409">
+        <v>8</v>
+      </c>
+      <c r="E409">
+        <v>10</v>
+      </c>
+      <c r="F409" t="s">
+        <v>194</v>
+      </c>
+      <c r="G409" t="s">
+        <v>32</v>
+      </c>
+      <c r="M409" s="8"/>
+      <c r="N409" s="8"/>
+      <c r="O409" s="8"/>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>2025</v>
+      </c>
+      <c r="B410">
+        <v>9</v>
+      </c>
+      <c r="C410" t="s">
+        <v>12</v>
+      </c>
+      <c r="D410">
+        <v>9</v>
+      </c>
+      <c r="E410">
+        <v>6</v>
+      </c>
+      <c r="F410" t="s">
+        <v>190</v>
+      </c>
+      <c r="G410" t="s">
+        <v>25</v>
+      </c>
+      <c r="M410" s="8"/>
+      <c r="N410" s="8"/>
+      <c r="O410" s="8"/>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>2025</v>
+      </c>
+      <c r="B411">
+        <v>9</v>
+      </c>
+      <c r="C411" t="s">
+        <v>12</v>
+      </c>
+      <c r="D411">
+        <v>10</v>
+      </c>
+      <c r="E411">
+        <v>14</v>
+      </c>
+      <c r="F411" t="s">
+        <v>192</v>
+      </c>
+      <c r="G411" t="s">
+        <v>36</v>
+      </c>
+      <c r="M411" s="8"/>
+      <c r="N411" s="8"/>
+      <c r="O411" s="8"/>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>2025</v>
+      </c>
+      <c r="B412">
+        <v>9</v>
+      </c>
+      <c r="C412" t="s">
+        <v>12</v>
+      </c>
+      <c r="D412">
+        <v>11</v>
+      </c>
+      <c r="E412">
+        <v>23</v>
+      </c>
+      <c r="F412" t="s">
+        <v>186</v>
+      </c>
+      <c r="G412" t="s">
+        <v>27</v>
+      </c>
+      <c r="M412" s="8"/>
+      <c r="N412" s="8"/>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>2025</v>
+      </c>
+      <c r="B413">
+        <v>9</v>
+      </c>
+      <c r="C413" t="s">
+        <v>12</v>
+      </c>
+      <c r="D413">
+        <v>12</v>
+      </c>
+      <c r="E413">
+        <v>5</v>
+      </c>
+      <c r="F413" t="s">
+        <v>199</v>
+      </c>
+      <c r="G413" t="s">
+        <v>40</v>
+      </c>
+      <c r="M413" s="8"/>
+      <c r="N413" s="8"/>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>2025</v>
+      </c>
+      <c r="B414">
+        <v>9</v>
+      </c>
+      <c r="C414" t="s">
+        <v>12</v>
+      </c>
+      <c r="D414">
+        <v>13</v>
+      </c>
+      <c r="E414">
+        <v>30</v>
+      </c>
+      <c r="F414" t="s">
+        <v>195</v>
+      </c>
+      <c r="G414" t="s">
+        <v>25</v>
+      </c>
+      <c r="M414" s="8"/>
+      <c r="N414" s="8"/>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>2025</v>
+      </c>
+      <c r="B415">
+        <v>9</v>
+      </c>
+      <c r="C415" t="s">
+        <v>12</v>
+      </c>
+      <c r="D415">
+        <v>14</v>
+      </c>
+      <c r="E415">
+        <v>18</v>
+      </c>
+      <c r="F415" t="s">
+        <v>196</v>
+      </c>
+      <c r="G415" t="s">
+        <v>36</v>
+      </c>
+      <c r="M415" s="8"/>
+      <c r="N415" s="8"/>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>2025</v>
+      </c>
+      <c r="B416">
+        <v>9</v>
+      </c>
+      <c r="C416" t="s">
+        <v>12</v>
+      </c>
+      <c r="D416">
+        <v>15</v>
+      </c>
+      <c r="E416">
+        <v>87</v>
+      </c>
+      <c r="F416" t="s">
+        <v>198</v>
+      </c>
+      <c r="G416" t="s">
+        <v>45</v>
+      </c>
+      <c r="M416" s="8"/>
+      <c r="N416" s="8"/>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>2025</v>
+      </c>
+      <c r="B417">
+        <v>9</v>
+      </c>
+      <c r="C417" t="s">
+        <v>12</v>
+      </c>
+      <c r="D417">
+        <v>16</v>
+      </c>
+      <c r="E417">
+        <v>27</v>
+      </c>
+      <c r="F417" t="s">
+        <v>193</v>
+      </c>
+      <c r="G417" t="s">
+        <v>40</v>
+      </c>
+      <c r="M417" s="8"/>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>2025</v>
+      </c>
+      <c r="B418">
+        <v>9</v>
+      </c>
+      <c r="C418" t="s">
+        <v>12</v>
+      </c>
+      <c r="D418">
+        <v>17</v>
+      </c>
+      <c r="E418">
+        <v>31</v>
+      </c>
+      <c r="F418" t="s">
+        <v>201</v>
+      </c>
+      <c r="G418" t="s">
+        <v>45</v>
+      </c>
+      <c r="M418" s="8"/>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>2025</v>
+      </c>
+      <c r="B419">
+        <v>9</v>
+      </c>
+      <c r="C419" t="s">
+        <v>12</v>
+      </c>
+      <c r="D419">
+        <v>18</v>
+      </c>
+      <c r="E419">
+        <v>55</v>
+      </c>
+      <c r="F419" t="s">
+        <v>189</v>
+      </c>
+      <c r="G419" t="s">
+        <v>27</v>
+      </c>
+      <c r="M419" s="8"/>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>2025</v>
+      </c>
+      <c r="B420">
+        <v>9</v>
+      </c>
+      <c r="C420" t="s">
+        <v>12</v>
+      </c>
+      <c r="D420">
+        <v>19</v>
+      </c>
+      <c r="E420">
+        <v>43</v>
+      </c>
+      <c r="F420" t="s">
+        <v>197</v>
+      </c>
+      <c r="G420" t="s">
+        <v>32</v>
+      </c>
+      <c r="M420" s="8"/>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>2025</v>
+      </c>
+      <c r="B421">
+        <v>9</v>
+      </c>
+      <c r="C421" t="s">
+        <v>12</v>
+      </c>
+      <c r="D421">
+        <v>20</v>
+      </c>
+      <c r="E421">
+        <v>22</v>
+      </c>
+      <c r="F421" t="s">
+        <v>191</v>
+      </c>
+      <c r="G421" t="s">
+        <v>21</v>
+      </c>
+      <c r="M421" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/public/docs/datas/f1.xlsx
+++ b/public/docs/datas/f1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\vue_platform\public\docs\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4500F7-776D-4AB2-8E17-C75F6B5DE1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAD0F23-E11E-4D4B-B942-450D0834C025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1224" yWindow="972" windowWidth="19128" windowHeight="19140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5376" yWindow="4512" windowWidth="24228" windowHeight="19140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rounds" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
     <sheet name="drivers" sheetId="4" r:id="rId4"/>
     <sheet name="teams" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">result!$A$1:$H$561</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="220">
   <si>
     <t>year</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -724,64 +727,128 @@
     <t>Franco Colapinto</t>
   </si>
   <si>
-    <t> Verstappen</t>
-  </si>
-  <si>
-    <t> Norris</t>
-  </si>
-  <si>
-    <t> Piastri</t>
-  </si>
-  <si>
-    <t> Hamilton</t>
-  </si>
-  <si>
-    <t> Albon</t>
-  </si>
-  <si>
-    <t> Leclerc</t>
-  </si>
-  <si>
-    <t> Russell</t>
-  </si>
-  <si>
-    <t> Sainz</t>
-  </si>
-  <si>
-    <t> Hadjar</t>
-  </si>
-  <si>
-    <t> Tsunoda</t>
-  </si>
-  <si>
-    <t> Alonso</t>
-  </si>
-  <si>
-    <t> Hulkenberg</t>
-  </si>
-  <si>
-    <t> Gasly</t>
-  </si>
-  <si>
-    <t> Lawson</t>
-  </si>
-  <si>
-    <t> Stroll</t>
-  </si>
-  <si>
-    <t> Colapinto</t>
-  </si>
-  <si>
-    <t> Bearman</t>
-  </si>
-  <si>
-    <t> Bortoleto</t>
-  </si>
-  <si>
-    <t> Antonelli</t>
-  </si>
-  <si>
-    <t> Ocon</t>
+    <t>Australia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFinished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McLaren</t>
+  </si>
+  <si>
+    <t>Kick Sauber</t>
+  </si>
+  <si>
+    <t>Racing Bulls</t>
+  </si>
+  <si>
+    <t>Alpine</t>
+  </si>
+  <si>
+    <t>Aston Martin</t>
+  </si>
+  <si>
+    <t>Red Bull Racing</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Haas</t>
+  </si>
+  <si>
+    <t>newName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leclerc</t>
+  </si>
+  <si>
+    <t>Piastri</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Verstappen</t>
+  </si>
+  <si>
+    <t>Hadjar</t>
+  </si>
+  <si>
+    <t>Alonso</t>
+  </si>
+  <si>
+    <t>Ocon</t>
+  </si>
+  <si>
+    <t>Lawson</t>
+  </si>
+  <si>
+    <t>Albon</t>
+  </si>
+  <si>
+    <t>Sainz</t>
+  </si>
+  <si>
+    <t>Tsunoda</t>
+  </si>
+  <si>
+    <t>Hulkenberg</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Antonelli</t>
+  </si>
+  <si>
+    <t>Bortoleto</t>
+  </si>
+  <si>
+    <t>Bearman</t>
+  </si>
+  <si>
+    <t>Gasly</t>
+  </si>
+  <si>
+    <t>Stroll</t>
+  </si>
+  <si>
+    <t>Colapinto</t>
+  </si>
+  <si>
+    <t>Jack Doohan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doohan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Franco Colapinto</t>
+  </si>
+  <si>
+    <t>Franco Colapinto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -832,7 +899,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -840,11 +907,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -866,7 +948,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1147,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1251,7 @@
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1190,572 +1276,666 @@
       <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2025</v>
-      </c>
-      <c r="B2">
+      <c r="I1" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11">
+        <v>58</v>
+      </c>
+      <c r="H2" s="11">
+        <v>5.2779999999999996</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="11">
+        <v>56</v>
+      </c>
+      <c r="H3" s="11">
+        <v>5.4509999999999996</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="11">
+        <v>53</v>
+      </c>
+      <c r="H4" s="11">
+        <v>5.8070000000000004</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="11">
+        <v>57</v>
+      </c>
+      <c r="H5" s="11">
+        <v>5.4119999999999999</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="11">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="11">
+        <v>50</v>
+      </c>
+      <c r="H6" s="11">
+        <v>5.1740000000000004</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="11">
+        <v>57</v>
+      </c>
+      <c r="H7" s="11">
+        <v>5.4119999999999999</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="11">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="11">
+        <v>63</v>
+      </c>
+      <c r="H8" s="11">
+        <v>4.9089999999999998</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="11">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="11">
+        <v>78</v>
+      </c>
+      <c r="H9" s="11">
+        <v>3.3370000000000002</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="11">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="C10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="11">
+        <v>66</v>
+      </c>
+      <c r="H10" s="11">
+        <v>4.657</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B11" s="11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="11">
+        <v>70</v>
+      </c>
+      <c r="H11" s="11">
+        <v>4.3609999999999998</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B12" s="11">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="11">
+        <v>71</v>
+      </c>
+      <c r="H12" s="11">
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B13" s="11">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="11">
+        <v>52</v>
+      </c>
+      <c r="H13" s="11">
+        <v>5.891</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B14" s="11">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="11">
+        <v>44</v>
+      </c>
+      <c r="H14" s="11">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B15" s="11">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="11">
+        <v>70</v>
+      </c>
+      <c r="H15" s="11">
+        <v>4.3810000000000002</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B16" s="11">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="11">
+        <v>72</v>
+      </c>
+      <c r="H16" s="11">
+        <v>4.2590000000000003</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B17" s="11">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="11">
+        <v>53</v>
+      </c>
+      <c r="H17" s="11">
+        <v>5.7930000000000001</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B18" s="11">
+        <v>17</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="11">
+        <v>51</v>
+      </c>
+      <c r="H18" s="11">
+        <v>6.0030000000000001</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B19" s="11">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="11">
+        <v>62</v>
+      </c>
+      <c r="H19" s="11">
+        <v>4.93</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B20" s="11">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="11">
+        <v>56</v>
+      </c>
+      <c r="H20" s="11">
+        <v>5.5129999999999999</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B21" s="11">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="11">
+        <v>71</v>
+      </c>
+      <c r="H21" s="11">
+        <v>4.3040000000000003</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B22" s="11">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="11">
+        <v>71</v>
+      </c>
+      <c r="H22" s="11">
+        <v>4.3090000000000002</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B23" s="11">
+        <v>22</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="11">
+        <v>50</v>
+      </c>
+      <c r="H23" s="11">
+        <v>6.2009999999999996</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B24" s="11">
+        <v>23</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="11">
+        <v>57</v>
+      </c>
+      <c r="H24" s="11">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B25" s="11">
+        <v>24</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="11">
         <v>58</v>
       </c>
-      <c r="H2">
-        <v>5.2779999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2025</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3">
-        <v>56</v>
-      </c>
-      <c r="H3">
-        <v>5.4509999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2025</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4">
-        <v>53</v>
-      </c>
-      <c r="H4">
-        <v>5.8070000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2025</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5">
-        <v>57</v>
-      </c>
-      <c r="H5">
-        <v>5.4119999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2025</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6">
-        <v>5.1740000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2025</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7">
-        <v>57</v>
-      </c>
-      <c r="H7">
-        <v>5.4119999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2025</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8">
-        <v>63</v>
-      </c>
-      <c r="H8">
-        <v>4.9089999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2025</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9">
-        <v>78</v>
-      </c>
-      <c r="H9">
-        <v>3.3370000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2025</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10">
-        <v>66</v>
-      </c>
-      <c r="H10">
-        <v>4.657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2025</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11">
-        <v>70</v>
-      </c>
-      <c r="H11">
-        <v>4.3609999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2025</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12">
-        <v>71</v>
-      </c>
-      <c r="H12">
-        <v>4.3179999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2025</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13">
-        <v>52</v>
-      </c>
-      <c r="H13">
-        <v>5.891</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2025</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14">
-        <v>44</v>
-      </c>
-      <c r="H14">
-        <v>7.0039999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2025</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15">
-        <v>70</v>
-      </c>
-      <c r="H15">
-        <v>4.3810000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2025</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16">
-        <v>72</v>
-      </c>
-      <c r="H16">
-        <v>4.2590000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17">
-        <v>53</v>
-      </c>
-      <c r="H17">
-        <v>5.7930000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2025</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18">
-        <v>51</v>
-      </c>
-      <c r="H18">
-        <v>6.0030000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2025</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19">
-        <v>62</v>
-      </c>
-      <c r="H19">
-        <v>4.93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2025</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20">
-        <v>56</v>
-      </c>
-      <c r="H20">
-        <v>5.5129999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2025</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21">
-        <v>71</v>
-      </c>
-      <c r="H21">
-        <v>4.3040000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2025</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22">
-        <v>71</v>
-      </c>
-      <c r="H22">
-        <v>4.3090000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2025</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-      <c r="H23">
-        <v>6.2009999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2025</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24">
-        <v>57</v>
-      </c>
-      <c r="H24">
-        <v>5.4189999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2025</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25">
-        <v>58</v>
-      </c>
-      <c r="H25">
+      <c r="H25" s="11">
         <v>5.2809999999999997</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1769,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE98A03A-8BBD-4D33-889D-72E5D2A17E08}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:C45"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2606,6 +2786,12 @@
       <c r="D37" s="1">
         <v>45800</v>
       </c>
+      <c r="E37" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="G37">
         <v>0</v>
       </c>
@@ -2623,6 +2809,12 @@
       <c r="D38" s="1">
         <v>45800</v>
       </c>
+      <c r="E38" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
       <c r="G38">
         <v>0</v>
       </c>
@@ -2640,6 +2832,12 @@
       <c r="D39" s="1">
         <v>45801</v>
       </c>
+      <c r="E39" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.8125</v>
+      </c>
       <c r="G39">
         <v>0</v>
       </c>
@@ -2657,6 +2855,12 @@
       <c r="D40" s="1">
         <v>45801</v>
       </c>
+      <c r="E40" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G40">
         <v>1</v>
       </c>
@@ -2674,6 +2878,9 @@
       <c r="D41" s="1">
         <v>45802</v>
       </c>
+      <c r="E41" s="2">
+        <v>0.875</v>
+      </c>
       <c r="G41">
         <v>1</v>
       </c>
@@ -2691,6 +2898,12 @@
       <c r="D42" s="1">
         <v>45807</v>
       </c>
+      <c r="E42" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="G42">
         <v>0</v>
       </c>
@@ -2708,6 +2921,12 @@
       <c r="D43" s="1">
         <v>45807</v>
       </c>
+      <c r="E43" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -2725,6 +2944,12 @@
       <c r="D44" s="1">
         <v>45808</v>
       </c>
+      <c r="E44" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.8125</v>
+      </c>
       <c r="G44">
         <v>0</v>
       </c>
@@ -2742,6 +2967,12 @@
       <c r="D45" s="1">
         <v>45808</v>
       </c>
+      <c r="E45" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G45">
         <v>1</v>
       </c>
@@ -2759,6 +2990,9 @@
       <c r="D46" s="1">
         <v>45809</v>
       </c>
+      <c r="E46" s="2">
+        <v>0.875</v>
+      </c>
       <c r="G46">
         <v>1</v>
       </c>
@@ -2776,6 +3010,12 @@
       <c r="D47" s="1">
         <v>45822</v>
       </c>
+      <c r="E47" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="G47">
         <v>0</v>
       </c>
@@ -2793,6 +3033,12 @@
       <c r="D48" s="1">
         <v>45822</v>
       </c>
+      <c r="E48" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.25</v>
+      </c>
       <c r="G48">
         <v>0</v>
       </c>
@@ -2810,6 +3056,12 @@
       <c r="D49" s="1">
         <v>45823</v>
       </c>
+      <c r="E49" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>6.25E-2</v>
+      </c>
       <c r="G49">
         <v>0</v>
       </c>
@@ -2827,6 +3079,12 @@
       <c r="D50" s="1">
         <v>45823</v>
       </c>
+      <c r="E50" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="G50">
         <v>1</v>
       </c>
@@ -2844,6 +3102,9 @@
       <c r="D51" s="1">
         <v>45824</v>
       </c>
+      <c r="E51" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G51">
         <v>1</v>
       </c>
@@ -2861,6 +3122,12 @@
       <c r="D52" s="1">
         <v>45835</v>
       </c>
+      <c r="E52" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="G52">
         <v>0</v>
       </c>
@@ -2878,6 +3145,12 @@
       <c r="D53" s="1">
         <v>45835</v>
       </c>
+      <c r="E53" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
       <c r="G53">
         <v>0</v>
       </c>
@@ -2895,6 +3168,12 @@
       <c r="D54" s="1">
         <v>45836</v>
       </c>
+      <c r="E54" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.8125</v>
+      </c>
       <c r="G54">
         <v>0</v>
       </c>
@@ -2912,6 +3191,12 @@
       <c r="D55" s="1">
         <v>45836</v>
       </c>
+      <c r="E55" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G55">
         <v>1</v>
       </c>
@@ -2929,6 +3214,9 @@
       <c r="D56" s="1">
         <v>45837</v>
       </c>
+      <c r="E56" s="2">
+        <v>0.875</v>
+      </c>
       <c r="G56">
         <v>1</v>
       </c>
@@ -2946,6 +3234,12 @@
       <c r="D57" s="1">
         <v>45842</v>
       </c>
+      <c r="E57" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="G57">
         <v>0</v>
       </c>
@@ -2963,6 +3257,12 @@
       <c r="D58" s="1">
         <v>45842</v>
       </c>
+      <c r="E58" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
       <c r="G58">
         <v>0</v>
       </c>
@@ -2980,6 +3280,12 @@
       <c r="D59" s="1">
         <v>45843</v>
       </c>
+      <c r="E59" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.8125</v>
+      </c>
       <c r="G59">
         <v>0</v>
       </c>
@@ -2997,6 +3303,12 @@
       <c r="D60" s="1">
         <v>45843</v>
       </c>
+      <c r="E60" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G60">
         <v>1</v>
       </c>
@@ -3013,6 +3325,9 @@
       </c>
       <c r="D61" s="1">
         <v>45844</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.91666666666666663</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -4046,10 +4361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247AF3E6-8BD7-40DE-ACC7-21D4F916BD21}">
-  <dimension ref="A1:R421"/>
+  <dimension ref="A1:R561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:C421"/>
+    <sheetView topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="F544" sqref="F544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4060,7 +4375,7 @@
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -13193,7 +13508,7 @@
         <v>1</v>
       </c>
       <c r="F342" s="9" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="G342" s="9" t="s">
         <v>21</v>
@@ -13201,6 +13516,7 @@
       <c r="H342" s="10">
         <v>25</v>
       </c>
+      <c r="K342" s="13"/>
       <c r="N342" s="6"/>
       <c r="O342" s="5"/>
       <c r="P342" s="5"/>
@@ -13223,7 +13539,7 @@
         <v>4</v>
       </c>
       <c r="F343" s="9" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="G343" s="9" t="s">
         <v>18</v>
@@ -13231,6 +13547,7 @@
       <c r="H343" s="9">
         <v>18</v>
       </c>
+      <c r="K343" s="13"/>
     </row>
     <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" s="9">
@@ -13249,7 +13566,7 @@
         <v>81</v>
       </c>
       <c r="F344" s="9" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="G344" s="9" t="s">
         <v>18</v>
@@ -13257,6 +13574,7 @@
       <c r="H344" s="9">
         <v>15</v>
       </c>
+      <c r="K344" s="13"/>
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" s="9">
@@ -13275,7 +13593,7 @@
         <v>44</v>
       </c>
       <c r="F345" s="9" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="G345" s="9" t="s">
         <v>29</v>
@@ -13283,6 +13601,7 @@
       <c r="H345" s="9">
         <v>12</v>
       </c>
+      <c r="K345" s="13"/>
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" s="9">
@@ -13301,7 +13620,7 @@
         <v>23</v>
       </c>
       <c r="F346" s="9" t="s">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="G346" s="9" t="s">
         <v>27</v>
@@ -13309,6 +13628,7 @@
       <c r="H346" s="9">
         <v>10</v>
       </c>
+      <c r="K346" s="13"/>
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" s="9">
@@ -13327,7 +13647,7 @@
         <v>16</v>
       </c>
       <c r="F347" s="9" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="G347" s="9" t="s">
         <v>29</v>
@@ -13335,6 +13655,7 @@
       <c r="H347" s="9">
         <v>8</v>
       </c>
+      <c r="K347" s="13"/>
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" s="9">
@@ -13353,7 +13674,7 @@
         <v>63</v>
       </c>
       <c r="F348" s="9" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="G348" s="9" t="s">
         <v>23</v>
@@ -13361,6 +13682,7 @@
       <c r="H348" s="9">
         <v>6</v>
       </c>
+      <c r="K348" s="13"/>
     </row>
     <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" s="9">
@@ -13379,7 +13701,7 @@
         <v>55</v>
       </c>
       <c r="F349" s="9" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="G349" s="9" t="s">
         <v>27</v>
@@ -13387,6 +13709,7 @@
       <c r="H349" s="9">
         <v>4</v>
       </c>
+      <c r="K349" s="13"/>
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" s="9">
@@ -13405,7 +13728,7 @@
         <v>6</v>
       </c>
       <c r="F350" s="9" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="G350" s="9" t="s">
         <v>25</v>
@@ -13413,6 +13736,7 @@
       <c r="H350" s="9">
         <v>2</v>
       </c>
+      <c r="K350" s="13"/>
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" s="9">
@@ -13431,7 +13755,7 @@
         <v>22</v>
       </c>
       <c r="F351" s="9" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="G351" s="9" t="s">
         <v>21</v>
@@ -13439,6 +13763,7 @@
       <c r="H351" s="9">
         <v>1</v>
       </c>
+      <c r="K351" s="13"/>
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" s="9">
@@ -13457,7 +13782,7 @@
         <v>14</v>
       </c>
       <c r="F352" s="9" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="G352" s="9" t="s">
         <v>36</v>
@@ -13465,6 +13790,7 @@
       <c r="H352" s="9">
         <v>0</v>
       </c>
+      <c r="K352" s="13"/>
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" s="9">
@@ -13483,7 +13809,7 @@
         <v>27</v>
       </c>
       <c r="F353" s="9" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="G353" s="9" t="s">
         <v>40</v>
@@ -13491,6 +13817,7 @@
       <c r="H353" s="9">
         <v>0</v>
       </c>
+      <c r="K353" s="13"/>
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" s="9">
@@ -13509,7 +13836,7 @@
         <v>10</v>
       </c>
       <c r="F354" s="9" t="s">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="G354" s="9" t="s">
         <v>32</v>
@@ -13517,6 +13844,7 @@
       <c r="H354" s="9">
         <v>0</v>
       </c>
+      <c r="K354" s="13"/>
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" s="9">
@@ -13535,7 +13863,7 @@
         <v>30</v>
       </c>
       <c r="F355" s="9" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="G355" s="9" t="s">
         <v>25</v>
@@ -13543,6 +13871,7 @@
       <c r="H355" s="9">
         <v>0</v>
       </c>
+      <c r="K355" s="13"/>
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" s="9">
@@ -13561,7 +13890,7 @@
         <v>18</v>
       </c>
       <c r="F356" s="9" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="G356" s="9" t="s">
         <v>36</v>
@@ -13569,6 +13898,7 @@
       <c r="H356" s="9">
         <v>0</v>
       </c>
+      <c r="K356" s="13"/>
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" s="9">
@@ -13587,7 +13917,7 @@
         <v>43</v>
       </c>
       <c r="F357" s="9" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G357" s="9" t="s">
         <v>32</v>
@@ -13595,6 +13925,7 @@
       <c r="H357" s="9">
         <v>0</v>
       </c>
+      <c r="K357" s="13"/>
     </row>
     <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" s="9">
@@ -13613,7 +13944,7 @@
         <v>87</v>
       </c>
       <c r="F358" s="9" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="G358" s="9" t="s">
         <v>45</v>
@@ -13621,6 +13952,7 @@
       <c r="H358" s="9">
         <v>0</v>
       </c>
+      <c r="K358" s="13"/>
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" s="9">
@@ -13639,7 +13971,7 @@
         <v>5</v>
       </c>
       <c r="F359" s="9" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="G359" s="9" t="s">
         <v>40</v>
@@ -13647,6 +13979,7 @@
       <c r="H359" s="9">
         <v>0</v>
       </c>
+      <c r="K359" s="13"/>
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" s="9">
@@ -13665,7 +13998,7 @@
         <v>12</v>
       </c>
       <c r="F360" s="9" t="s">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="G360" s="9" t="s">
         <v>23</v>
@@ -13673,6 +14006,7 @@
       <c r="H360" s="9">
         <v>0</v>
       </c>
+      <c r="K360" s="13"/>
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" s="9">
@@ -13691,7 +14025,7 @@
         <v>31</v>
       </c>
       <c r="F361" s="9" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="G361" s="9" t="s">
         <v>45</v>
@@ -13699,6 +14033,7 @@
       <c r="H361" s="9">
         <v>0</v>
       </c>
+      <c r="K361" s="13"/>
     </row>
     <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362">
@@ -13717,7 +14052,7 @@
         <v>4</v>
       </c>
       <c r="F362" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="G362" t="s">
         <v>18</v>
@@ -13743,7 +14078,7 @@
         <v>16</v>
       </c>
       <c r="F363" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="G363" t="s">
         <v>29</v>
@@ -13769,7 +14104,7 @@
         <v>81</v>
       </c>
       <c r="F364" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="G364" t="s">
         <v>18</v>
@@ -13795,7 +14130,7 @@
         <v>44</v>
       </c>
       <c r="F365" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="G365" t="s">
         <v>29</v>
@@ -13821,7 +14156,7 @@
         <v>1</v>
       </c>
       <c r="F366" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="G366" t="s">
         <v>21</v>
@@ -13847,7 +14182,7 @@
         <v>6</v>
       </c>
       <c r="F367" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="G367" t="s">
         <v>25</v>
@@ -13873,7 +14208,7 @@
         <v>14</v>
       </c>
       <c r="F368" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="G368" t="s">
         <v>36</v>
@@ -13899,7 +14234,7 @@
         <v>31</v>
       </c>
       <c r="F369" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="G369" t="s">
         <v>45</v>
@@ -13925,7 +14260,7 @@
         <v>30</v>
       </c>
       <c r="F370" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="G370" t="s">
         <v>25</v>
@@ -13951,7 +14286,7 @@
         <v>23</v>
       </c>
       <c r="F371" t="s">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="G371" t="s">
         <v>27</v>
@@ -13977,7 +14312,7 @@
         <v>55</v>
       </c>
       <c r="F372" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="G372" t="s">
         <v>27</v>
@@ -14002,7 +14337,7 @@
         <v>22</v>
       </c>
       <c r="F373" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="G373" t="s">
         <v>21</v>
@@ -14027,7 +14362,7 @@
         <v>27</v>
       </c>
       <c r="F374" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="G374" t="s">
         <v>40</v>
@@ -14052,7 +14387,7 @@
         <v>63</v>
       </c>
       <c r="F375" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="G375" t="s">
         <v>23</v>
@@ -14076,7 +14411,7 @@
         <v>12</v>
       </c>
       <c r="F376" t="s">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="G376" t="s">
         <v>23</v>
@@ -14100,7 +14435,7 @@
         <v>5</v>
       </c>
       <c r="F377" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="G377" t="s">
         <v>40</v>
@@ -14124,7 +14459,7 @@
         <v>87</v>
       </c>
       <c r="F378" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="G378" t="s">
         <v>45</v>
@@ -14148,7 +14483,7 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="G379" t="s">
         <v>32</v>
@@ -14172,7 +14507,7 @@
         <v>18</v>
       </c>
       <c r="F380" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="G380" t="s">
         <v>36</v>
@@ -14196,7 +14531,7 @@
         <v>43</v>
       </c>
       <c r="F381" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G381" t="s">
         <v>32</v>
@@ -14220,7 +14555,7 @@
         <v>4</v>
       </c>
       <c r="F382" s="9" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="G382" s="9" t="s">
         <v>18</v>
@@ -14247,7 +14582,7 @@
         <v>16</v>
       </c>
       <c r="F383" s="9" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="G383" s="9" t="s">
         <v>29</v>
@@ -14273,7 +14608,7 @@
         <v>81</v>
       </c>
       <c r="F384" s="9" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="G384" s="9" t="s">
         <v>18</v>
@@ -14299,7 +14634,7 @@
         <v>1</v>
       </c>
       <c r="F385" s="9" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="G385" s="9" t="s">
         <v>21</v>
@@ -14325,7 +14660,7 @@
         <v>44</v>
       </c>
       <c r="F386" s="9" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="G386" s="9" t="s">
         <v>29</v>
@@ -14351,7 +14686,7 @@
         <v>6</v>
       </c>
       <c r="F387" s="9" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="G387" s="9" t="s">
         <v>25</v>
@@ -14377,12 +14712,12 @@
         <v>31</v>
       </c>
       <c r="F388" s="9" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="G388" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H388" s="11">
+      <c r="H388" s="9">
         <v>6</v>
       </c>
     </row>
@@ -14403,12 +14738,12 @@
         <v>30</v>
       </c>
       <c r="F389" s="9" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="G389" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H389" s="11">
+      <c r="H389" s="9">
         <v>4</v>
       </c>
     </row>
@@ -14429,12 +14764,12 @@
         <v>23</v>
       </c>
       <c r="F390" s="9" t="s">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="G390" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H390" s="11">
+      <c r="H390" s="9">
         <v>2</v>
       </c>
     </row>
@@ -14455,12 +14790,12 @@
         <v>55</v>
       </c>
       <c r="F391" s="9" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="G391" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H391" s="11">
+      <c r="H391" s="9">
         <v>1</v>
       </c>
     </row>
@@ -14481,12 +14816,12 @@
         <v>63</v>
       </c>
       <c r="F392" s="9" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="G392" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H392" s="11">
+      <c r="H392" s="9">
         <v>0</v>
       </c>
     </row>
@@ -14507,12 +14842,12 @@
         <v>87</v>
       </c>
       <c r="F393" s="9" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="G393" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H393" s="11">
+      <c r="H393" s="9">
         <v>0</v>
       </c>
     </row>
@@ -14533,12 +14868,12 @@
         <v>43</v>
       </c>
       <c r="F394" s="9" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G394" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H394" s="11">
+      <c r="H394" s="9">
         <v>0</v>
       </c>
     </row>
@@ -14559,12 +14894,12 @@
         <v>5</v>
       </c>
       <c r="F395" s="9" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="G395" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H395" s="11">
+      <c r="H395" s="9">
         <v>0</v>
       </c>
     </row>
@@ -14585,12 +14920,12 @@
         <v>18</v>
       </c>
       <c r="F396" s="9" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="G396" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H396" s="11">
+      <c r="H396" s="9">
         <v>0</v>
       </c>
     </row>
@@ -14611,12 +14946,12 @@
         <v>27</v>
       </c>
       <c r="F397" s="9" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="G397" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H397" s="11">
+      <c r="H397" s="9">
         <v>0</v>
       </c>
     </row>
@@ -14637,12 +14972,12 @@
         <v>22</v>
       </c>
       <c r="F398" s="9" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="G398" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H398" s="11">
+      <c r="H398" s="9">
         <v>0</v>
       </c>
     </row>
@@ -14663,12 +14998,12 @@
         <v>12</v>
       </c>
       <c r="F399" s="9" t="s">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="G399" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H399" s="11">
+      <c r="H399" s="9">
         <v>0</v>
       </c>
     </row>
@@ -14689,7 +15024,7 @@
         <v>14</v>
       </c>
       <c r="F400" s="9" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="G400" s="9" t="s">
         <v>36</v>
@@ -14715,7 +15050,7 @@
         <v>10</v>
       </c>
       <c r="F401" s="9" t="s">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="G401" s="9" t="s">
         <v>32</v>
@@ -14741,7 +15076,7 @@
         <v>81</v>
       </c>
       <c r="F402" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="G402" t="s">
         <v>18</v>
@@ -14767,7 +15102,7 @@
         <v>4</v>
       </c>
       <c r="F403" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="G403" t="s">
         <v>18</v>
@@ -14793,7 +15128,7 @@
         <v>1</v>
       </c>
       <c r="F404" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="G404" t="s">
         <v>21</v>
@@ -14819,7 +15154,7 @@
         <v>63</v>
       </c>
       <c r="F405" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="G405" t="s">
         <v>23</v>
@@ -14845,7 +15180,7 @@
         <v>44</v>
       </c>
       <c r="F406" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="G406" t="s">
         <v>29</v>
@@ -14871,7 +15206,7 @@
         <v>12</v>
       </c>
       <c r="F407" t="s">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="G407" t="s">
         <v>23</v>
@@ -14897,7 +15232,7 @@
         <v>16</v>
       </c>
       <c r="F408" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="G408" t="s">
         <v>29</v>
@@ -14923,7 +15258,7 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="G409" t="s">
         <v>32</v>
@@ -14949,7 +15284,7 @@
         <v>6</v>
       </c>
       <c r="F410" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="G410" t="s">
         <v>25</v>
@@ -14975,7 +15310,7 @@
         <v>14</v>
       </c>
       <c r="F411" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="G411" t="s">
         <v>36</v>
@@ -15001,7 +15336,7 @@
         <v>23</v>
       </c>
       <c r="F412" t="s">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="G412" t="s">
         <v>27</v>
@@ -15026,7 +15361,7 @@
         <v>5</v>
       </c>
       <c r="F413" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="G413" t="s">
         <v>40</v>
@@ -15051,7 +15386,7 @@
         <v>30</v>
       </c>
       <c r="F414" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="G414" t="s">
         <v>25</v>
@@ -15076,7 +15411,7 @@
         <v>18</v>
       </c>
       <c r="F415" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="G415" t="s">
         <v>36</v>
@@ -15101,7 +15436,7 @@
         <v>87</v>
       </c>
       <c r="F416" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="G416" t="s">
         <v>45</v>
@@ -15109,7 +15444,7 @@
       <c r="M416" s="8"/>
       <c r="N416" s="8"/>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2025</v>
       </c>
@@ -15126,14 +15461,14 @@
         <v>27</v>
       </c>
       <c r="F417" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="G417" t="s">
         <v>40</v>
       </c>
       <c r="M417" s="8"/>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2025</v>
       </c>
@@ -15150,14 +15485,14 @@
         <v>31</v>
       </c>
       <c r="F418" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="G418" t="s">
         <v>45</v>
       </c>
       <c r="M418" s="8"/>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2025</v>
       </c>
@@ -15174,14 +15509,14 @@
         <v>55</v>
       </c>
       <c r="F419" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="G419" t="s">
         <v>27</v>
       </c>
       <c r="M419" s="8"/>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2025</v>
       </c>
@@ -15198,14 +15533,14 @@
         <v>43</v>
       </c>
       <c r="F420" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G420" t="s">
         <v>32</v>
       </c>
       <c r="M420" s="8"/>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2025</v>
       </c>
@@ -15222,14 +15557,3965 @@
         <v>22</v>
       </c>
       <c r="F421" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="G421" t="s">
         <v>21</v>
       </c>
-      <c r="M421" s="8"/>
+      <c r="I421" s="3"/>
+      <c r="J421" s="3"/>
+      <c r="K421" s="3"/>
+      <c r="L421" s="3"/>
+      <c r="M421" s="3"/>
+      <c r="N421" s="4"/>
+      <c r="O421" s="3"/>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A422" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B422" s="9">
+        <v>9</v>
+      </c>
+      <c r="C422" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D422" s="12">
+        <v>1</v>
+      </c>
+      <c r="E422" s="12">
+        <v>81</v>
+      </c>
+      <c r="F422" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G422" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H422" s="12">
+        <v>25</v>
+      </c>
+      <c r="I422" s="3"/>
+      <c r="J422" s="3"/>
+      <c r="K422" s="3"/>
+      <c r="L422" s="3"/>
+      <c r="M422" s="3"/>
+      <c r="N422" s="3"/>
+      <c r="O422" s="3"/>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A423" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B423" s="9">
+        <v>9</v>
+      </c>
+      <c r="C423" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D423" s="12">
+        <v>2</v>
+      </c>
+      <c r="E423" s="12">
+        <v>4</v>
+      </c>
+      <c r="F423" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G423" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H423" s="12">
+        <v>18</v>
+      </c>
+      <c r="I423" s="3"/>
+      <c r="J423" s="3"/>
+      <c r="K423" s="3"/>
+      <c r="L423" s="3"/>
+      <c r="M423" s="3"/>
+      <c r="N423" s="3"/>
+      <c r="O423" s="3"/>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A424" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B424" s="9">
+        <v>9</v>
+      </c>
+      <c r="C424" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D424" s="12">
+        <v>3</v>
+      </c>
+      <c r="E424" s="12">
+        <v>16</v>
+      </c>
+      <c r="F424" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G424" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H424" s="12">
+        <v>15</v>
+      </c>
+      <c r="I424" s="3"/>
+      <c r="J424" s="3"/>
+      <c r="K424" s="3"/>
+      <c r="L424" s="3"/>
+      <c r="M424" s="3"/>
+      <c r="N424" s="3"/>
+      <c r="O424" s="3"/>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A425" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B425" s="9">
+        <v>9</v>
+      </c>
+      <c r="C425" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D425" s="12">
+        <v>4</v>
+      </c>
+      <c r="E425" s="12">
+        <v>63</v>
+      </c>
+      <c r="F425" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G425" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H425" s="12">
+        <v>12</v>
+      </c>
+      <c r="I425" s="3"/>
+      <c r="J425" s="3"/>
+      <c r="K425" s="3"/>
+      <c r="L425" s="3"/>
+      <c r="M425" s="3"/>
+      <c r="N425" s="3"/>
+      <c r="O425" s="3"/>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A426" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B426" s="9">
+        <v>9</v>
+      </c>
+      <c r="C426" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D426" s="12">
+        <v>5</v>
+      </c>
+      <c r="E426" s="12">
+        <v>27</v>
+      </c>
+      <c r="F426" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G426" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H426" s="12">
+        <v>10</v>
+      </c>
+      <c r="I426" s="3"/>
+      <c r="J426" s="3"/>
+      <c r="K426" s="3"/>
+      <c r="L426" s="3"/>
+      <c r="M426" s="3"/>
+      <c r="N426" s="3"/>
+      <c r="O426" s="3"/>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A427" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B427" s="9">
+        <v>9</v>
+      </c>
+      <c r="C427" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D427" s="12">
+        <v>6</v>
+      </c>
+      <c r="E427" s="12">
+        <v>44</v>
+      </c>
+      <c r="F427" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G427" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H427" s="12">
+        <v>8</v>
+      </c>
+      <c r="I427" s="3"/>
+      <c r="J427" s="3"/>
+      <c r="K427" s="3"/>
+      <c r="L427" s="3"/>
+      <c r="M427" s="3"/>
+      <c r="N427" s="3"/>
+      <c r="O427" s="3"/>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A428" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B428" s="9">
+        <v>9</v>
+      </c>
+      <c r="C428" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D428" s="12">
+        <v>7</v>
+      </c>
+      <c r="E428" s="12">
+        <v>6</v>
+      </c>
+      <c r="F428" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G428" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H428" s="12">
+        <v>6</v>
+      </c>
+      <c r="I428" s="3"/>
+      <c r="J428" s="3"/>
+      <c r="K428" s="3"/>
+      <c r="L428" s="3"/>
+      <c r="M428" s="3"/>
+      <c r="N428" s="3"/>
+      <c r="O428" s="3"/>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A429" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B429" s="9">
+        <v>9</v>
+      </c>
+      <c r="C429" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D429" s="12">
+        <v>8</v>
+      </c>
+      <c r="E429" s="12">
+        <v>10</v>
+      </c>
+      <c r="F429" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G429" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H429" s="12">
+        <v>4</v>
+      </c>
+      <c r="I429" s="3"/>
+      <c r="J429" s="3"/>
+      <c r="K429" s="3"/>
+      <c r="L429" s="3"/>
+      <c r="M429" s="3"/>
+      <c r="N429" s="3"/>
+      <c r="O429" s="3"/>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A430" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B430" s="9">
+        <v>9</v>
+      </c>
+      <c r="C430" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D430" s="12">
+        <v>9</v>
+      </c>
+      <c r="E430" s="12">
+        <v>14</v>
+      </c>
+      <c r="F430" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G430" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H430" s="12">
+        <v>2</v>
+      </c>
+      <c r="I430" s="3"/>
+      <c r="J430" s="3"/>
+      <c r="K430" s="3"/>
+      <c r="L430" s="3"/>
+      <c r="M430" s="3"/>
+      <c r="N430" s="3"/>
+      <c r="O430" s="3"/>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A431" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B431" s="9">
+        <v>9</v>
+      </c>
+      <c r="C431" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D431" s="12">
+        <v>10</v>
+      </c>
+      <c r="E431" s="12">
+        <v>1</v>
+      </c>
+      <c r="F431" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G431" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H431" s="12">
+        <v>1</v>
+      </c>
+      <c r="I431" s="3"/>
+      <c r="J431" s="3"/>
+      <c r="K431" s="3"/>
+      <c r="L431" s="3"/>
+      <c r="M431" s="3"/>
+      <c r="N431" s="3"/>
+      <c r="O431" s="3"/>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A432" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B432" s="9">
+        <v>9</v>
+      </c>
+      <c r="C432" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D432" s="12">
+        <v>11</v>
+      </c>
+      <c r="E432" s="12">
+        <v>30</v>
+      </c>
+      <c r="F432" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G432" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H432" s="12">
+        <v>0</v>
+      </c>
+      <c r="I432" s="3"/>
+      <c r="J432" s="3"/>
+      <c r="K432" s="3"/>
+      <c r="L432" s="3"/>
+      <c r="M432" s="3"/>
+      <c r="N432" s="3"/>
+      <c r="O432" s="3"/>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A433" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B433" s="9">
+        <v>9</v>
+      </c>
+      <c r="C433" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D433" s="12">
+        <v>12</v>
+      </c>
+      <c r="E433" s="12">
+        <v>5</v>
+      </c>
+      <c r="F433" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G433" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H433" s="12">
+        <v>0</v>
+      </c>
+      <c r="I433" s="3"/>
+      <c r="J433" s="3"/>
+      <c r="K433" s="3"/>
+      <c r="L433" s="3"/>
+      <c r="M433" s="3"/>
+      <c r="N433" s="3"/>
+      <c r="O433" s="3"/>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A434" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B434" s="9">
+        <v>9</v>
+      </c>
+      <c r="C434" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D434" s="12">
+        <v>13</v>
+      </c>
+      <c r="E434" s="12">
+        <v>22</v>
+      </c>
+      <c r="F434" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G434" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H434" s="12">
+        <v>0</v>
+      </c>
+      <c r="I434" s="3"/>
+      <c r="J434" s="3"/>
+      <c r="K434" s="3"/>
+      <c r="L434" s="3"/>
+      <c r="M434" s="3"/>
+      <c r="N434" s="3"/>
+      <c r="O434" s="3"/>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A435" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B435" s="9">
+        <v>9</v>
+      </c>
+      <c r="C435" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D435" s="12">
+        <v>14</v>
+      </c>
+      <c r="E435" s="12">
+        <v>55</v>
+      </c>
+      <c r="F435" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G435" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H435" s="12">
+        <v>0</v>
+      </c>
+      <c r="I435" s="3"/>
+      <c r="J435" s="3"/>
+      <c r="K435" s="3"/>
+      <c r="L435" s="3"/>
+      <c r="M435" s="3"/>
+      <c r="N435" s="3"/>
+      <c r="O435" s="3"/>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A436" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B436" s="9">
+        <v>9</v>
+      </c>
+      <c r="C436" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D436" s="12">
+        <v>15</v>
+      </c>
+      <c r="E436" s="12">
+        <v>43</v>
+      </c>
+      <c r="F436" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G436" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H436" s="12">
+        <v>0</v>
+      </c>
+      <c r="I436" s="3"/>
+      <c r="J436" s="3"/>
+      <c r="K436" s="3"/>
+      <c r="L436" s="3"/>
+      <c r="M436" s="3"/>
+      <c r="N436" s="3"/>
+      <c r="O436" s="3"/>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A437" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B437" s="9">
+        <v>9</v>
+      </c>
+      <c r="C437" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D437" s="12">
+        <v>16</v>
+      </c>
+      <c r="E437" s="12">
+        <v>31</v>
+      </c>
+      <c r="F437" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G437" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H437" s="12">
+        <v>0</v>
+      </c>
+      <c r="I437" s="3"/>
+      <c r="J437" s="3"/>
+      <c r="K437" s="3"/>
+      <c r="L437" s="3"/>
+      <c r="M437" s="3"/>
+      <c r="N437" s="3"/>
+      <c r="O437" s="3"/>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A438" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B438" s="9">
+        <v>9</v>
+      </c>
+      <c r="C438" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D438" s="12">
+        <v>17</v>
+      </c>
+      <c r="E438" s="12">
+        <v>87</v>
+      </c>
+      <c r="F438" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G438" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H438" s="12">
+        <v>0</v>
+      </c>
+      <c r="I438" s="3"/>
+      <c r="J438" s="3"/>
+      <c r="K438" s="3"/>
+      <c r="L438" s="3"/>
+      <c r="M438" s="3"/>
+      <c r="N438" s="3"/>
+      <c r="O438" s="3"/>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A439" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B439" s="9">
+        <v>9</v>
+      </c>
+      <c r="C439" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D439" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E439" s="12">
+        <v>12</v>
+      </c>
+      <c r="F439" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G439" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H439" s="12">
+        <v>0</v>
+      </c>
+      <c r="I439" s="3"/>
+      <c r="J439" s="3"/>
+      <c r="K439" s="3"/>
+      <c r="L439" s="3"/>
+      <c r="M439" s="3"/>
+      <c r="N439" s="3"/>
+      <c r="O439" s="3"/>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A440" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B440" s="9">
+        <v>9</v>
+      </c>
+      <c r="C440" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D440" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E440" s="12">
+        <v>23</v>
+      </c>
+      <c r="F440" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G440" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H440" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A441" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B441" s="9">
+        <v>9</v>
+      </c>
+      <c r="C441" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D441" s="12"/>
+      <c r="E441" s="12">
+        <v>18</v>
+      </c>
+      <c r="F441" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G441" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H441" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>2025</v>
+      </c>
+      <c r="B442">
+        <v>10</v>
+      </c>
+      <c r="C442" t="s">
+        <v>12</v>
+      </c>
+      <c r="D442" s="3">
+        <v>1</v>
+      </c>
+      <c r="E442" s="3">
+        <v>63</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H442" s="4"/>
+      <c r="I442" s="4"/>
+      <c r="J442" s="4"/>
+      <c r="K442" s="3"/>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>2025</v>
+      </c>
+      <c r="B443">
+        <v>10</v>
+      </c>
+      <c r="C443" t="s">
+        <v>12</v>
+      </c>
+      <c r="D443" s="3">
+        <v>2</v>
+      </c>
+      <c r="E443" s="3">
+        <v>1</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H443" s="4"/>
+      <c r="I443" s="4"/>
+      <c r="J443" s="4"/>
+      <c r="K443" s="3"/>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>2025</v>
+      </c>
+      <c r="B444">
+        <v>10</v>
+      </c>
+      <c r="C444" t="s">
+        <v>12</v>
+      </c>
+      <c r="D444" s="3">
+        <v>3</v>
+      </c>
+      <c r="E444" s="3">
+        <v>81</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H444" s="4"/>
+      <c r="I444" s="4"/>
+      <c r="J444" s="4"/>
+      <c r="K444" s="3"/>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>2025</v>
+      </c>
+      <c r="B445">
+        <v>10</v>
+      </c>
+      <c r="C445" t="s">
+        <v>12</v>
+      </c>
+      <c r="D445" s="3">
+        <v>4</v>
+      </c>
+      <c r="E445" s="3">
+        <v>12</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G445" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H445" s="4"/>
+      <c r="I445" s="4"/>
+      <c r="J445" s="4"/>
+      <c r="K445" s="3"/>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>2025</v>
+      </c>
+      <c r="B446">
+        <v>10</v>
+      </c>
+      <c r="C446" t="s">
+        <v>12</v>
+      </c>
+      <c r="D446" s="3">
+        <v>5</v>
+      </c>
+      <c r="E446" s="3">
+        <v>44</v>
+      </c>
+      <c r="F446" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H446" s="4"/>
+      <c r="I446" s="4"/>
+      <c r="J446" s="4"/>
+      <c r="K446" s="3"/>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>2025</v>
+      </c>
+      <c r="B447">
+        <v>10</v>
+      </c>
+      <c r="C447" t="s">
+        <v>12</v>
+      </c>
+      <c r="D447" s="3">
+        <v>6</v>
+      </c>
+      <c r="E447" s="3">
+        <v>14</v>
+      </c>
+      <c r="F447" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G447" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H447" s="4"/>
+      <c r="I447" s="4"/>
+      <c r="J447" s="4"/>
+      <c r="K447" s="3"/>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>2025</v>
+      </c>
+      <c r="B448">
+        <v>10</v>
+      </c>
+      <c r="C448" t="s">
+        <v>12</v>
+      </c>
+      <c r="D448" s="3">
+        <v>7</v>
+      </c>
+      <c r="E448" s="3">
+        <v>4</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H448" s="4"/>
+      <c r="I448" s="4"/>
+      <c r="J448" s="4"/>
+      <c r="K448" s="3"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>2025</v>
+      </c>
+      <c r="B449">
+        <v>10</v>
+      </c>
+      <c r="C449" t="s">
+        <v>12</v>
+      </c>
+      <c r="D449" s="3">
+        <v>8</v>
+      </c>
+      <c r="E449" s="3">
+        <v>16</v>
+      </c>
+      <c r="F449" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H449" s="4"/>
+      <c r="I449" s="4"/>
+      <c r="J449" s="4"/>
+      <c r="K449" s="3"/>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>2025</v>
+      </c>
+      <c r="B450">
+        <v>10</v>
+      </c>
+      <c r="C450" t="s">
+        <v>12</v>
+      </c>
+      <c r="D450" s="3">
+        <v>9</v>
+      </c>
+      <c r="E450" s="3">
+        <v>6</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H450" s="4"/>
+      <c r="I450" s="4"/>
+      <c r="J450" s="4"/>
+      <c r="K450" s="3"/>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>2025</v>
+      </c>
+      <c r="B451">
+        <v>10</v>
+      </c>
+      <c r="C451" t="s">
+        <v>12</v>
+      </c>
+      <c r="D451" s="3">
+        <v>10</v>
+      </c>
+      <c r="E451" s="3">
+        <v>23</v>
+      </c>
+      <c r="F451" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G451" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H451" s="4"/>
+      <c r="I451" s="4"/>
+      <c r="J451" s="4"/>
+      <c r="K451" s="3"/>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>2025</v>
+      </c>
+      <c r="B452">
+        <v>10</v>
+      </c>
+      <c r="C452" t="s">
+        <v>12</v>
+      </c>
+      <c r="D452" s="3">
+        <v>11</v>
+      </c>
+      <c r="E452" s="3">
+        <v>22</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H452" s="4"/>
+      <c r="I452" s="4"/>
+      <c r="J452" s="3"/>
+      <c r="K452" s="3"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>2025</v>
+      </c>
+      <c r="B453">
+        <v>10</v>
+      </c>
+      <c r="C453" t="s">
+        <v>12</v>
+      </c>
+      <c r="D453" s="3">
+        <v>12</v>
+      </c>
+      <c r="E453" s="3">
+        <v>43</v>
+      </c>
+      <c r="F453" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H453" s="4"/>
+      <c r="I453" s="4"/>
+      <c r="J453" s="3"/>
+      <c r="K453" s="3"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>2025</v>
+      </c>
+      <c r="B454">
+        <v>10</v>
+      </c>
+      <c r="C454" t="s">
+        <v>12</v>
+      </c>
+      <c r="D454" s="3">
+        <v>13</v>
+      </c>
+      <c r="E454" s="3">
+        <v>27</v>
+      </c>
+      <c r="F454" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G454" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H454" s="4"/>
+      <c r="I454" s="4"/>
+      <c r="J454" s="3"/>
+      <c r="K454" s="3"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>2025</v>
+      </c>
+      <c r="B455">
+        <v>10</v>
+      </c>
+      <c r="C455" t="s">
+        <v>12</v>
+      </c>
+      <c r="D455" s="3">
+        <v>14</v>
+      </c>
+      <c r="E455" s="3">
+        <v>87</v>
+      </c>
+      <c r="F455" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G455" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H455" s="4"/>
+      <c r="I455" s="4"/>
+      <c r="J455" s="3"/>
+      <c r="K455" s="3"/>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>2025</v>
+      </c>
+      <c r="B456">
+        <v>10</v>
+      </c>
+      <c r="C456" t="s">
+        <v>12</v>
+      </c>
+      <c r="D456" s="3">
+        <v>15</v>
+      </c>
+      <c r="E456" s="3">
+        <v>31</v>
+      </c>
+      <c r="F456" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G456" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H456" s="4"/>
+      <c r="I456" s="4"/>
+      <c r="J456" s="3"/>
+      <c r="K456" s="3"/>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>2025</v>
+      </c>
+      <c r="B457">
+        <v>10</v>
+      </c>
+      <c r="C457" t="s">
+        <v>12</v>
+      </c>
+      <c r="D457" s="3">
+        <v>16</v>
+      </c>
+      <c r="E457" s="3">
+        <v>5</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G457" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H457" s="4"/>
+      <c r="I457" s="3"/>
+      <c r="J457" s="3"/>
+      <c r="K457" s="3"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>2025</v>
+      </c>
+      <c r="B458">
+        <v>10</v>
+      </c>
+      <c r="C458" t="s">
+        <v>12</v>
+      </c>
+      <c r="D458" s="3">
+        <v>17</v>
+      </c>
+      <c r="E458" s="3">
+        <v>55</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H458" s="4"/>
+      <c r="I458" s="3"/>
+      <c r="J458" s="3"/>
+      <c r="K458" s="3"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>2025</v>
+      </c>
+      <c r="B459">
+        <v>10</v>
+      </c>
+      <c r="C459" t="s">
+        <v>12</v>
+      </c>
+      <c r="D459" s="3">
+        <v>18</v>
+      </c>
+      <c r="E459" s="3">
+        <v>18</v>
+      </c>
+      <c r="F459" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H459" s="4"/>
+      <c r="I459" s="3"/>
+      <c r="J459" s="3"/>
+      <c r="K459" s="3"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>2025</v>
+      </c>
+      <c r="B460">
+        <v>10</v>
+      </c>
+      <c r="C460" t="s">
+        <v>12</v>
+      </c>
+      <c r="D460" s="3">
+        <v>19</v>
+      </c>
+      <c r="E460" s="3">
+        <v>30</v>
+      </c>
+      <c r="F460" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G460" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H460" s="4"/>
+      <c r="I460" s="3"/>
+      <c r="J460" s="3"/>
+      <c r="K460" s="3"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>2025</v>
+      </c>
+      <c r="B461">
+        <v>10</v>
+      </c>
+      <c r="C461" t="s">
+        <v>12</v>
+      </c>
+      <c r="D461" s="3">
+        <v>20</v>
+      </c>
+      <c r="E461" s="3">
+        <v>10</v>
+      </c>
+      <c r="F461" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H461" s="4"/>
+      <c r="I461" s="3"/>
+      <c r="J461" s="3"/>
+      <c r="K461" s="3"/>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A462" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B462" s="9">
+        <v>10</v>
+      </c>
+      <c r="C462" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D462" s="12">
+        <v>1</v>
+      </c>
+      <c r="E462" s="12">
+        <v>63</v>
+      </c>
+      <c r="F462" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G462" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H462" s="12">
+        <v>25</v>
+      </c>
+      <c r="I462" s="4"/>
+      <c r="J462" s="3"/>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A463" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B463" s="9">
+        <v>10</v>
+      </c>
+      <c r="C463" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D463" s="12">
+        <v>2</v>
+      </c>
+      <c r="E463" s="12">
+        <v>1</v>
+      </c>
+      <c r="F463" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G463" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H463" s="12">
+        <v>18</v>
+      </c>
+      <c r="I463" s="3"/>
+      <c r="J463" s="3"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A464" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B464" s="9">
+        <v>10</v>
+      </c>
+      <c r="C464" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D464" s="12">
+        <v>3</v>
+      </c>
+      <c r="E464" s="12">
+        <v>12</v>
+      </c>
+      <c r="F464" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G464" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H464" s="12">
+        <v>15</v>
+      </c>
+      <c r="I464" s="3"/>
+      <c r="J464" s="3"/>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A465" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B465" s="9">
+        <v>10</v>
+      </c>
+      <c r="C465" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D465" s="12">
+        <v>4</v>
+      </c>
+      <c r="E465" s="12">
+        <v>81</v>
+      </c>
+      <c r="F465" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G465" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H465" s="12">
+        <v>12</v>
+      </c>
+      <c r="I465" s="3"/>
+      <c r="J465" s="3"/>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A466" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B466" s="9">
+        <v>10</v>
+      </c>
+      <c r="C466" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D466" s="12">
+        <v>5</v>
+      </c>
+      <c r="E466" s="12">
+        <v>16</v>
+      </c>
+      <c r="F466" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G466" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H466" s="12">
+        <v>10</v>
+      </c>
+      <c r="I466" s="3"/>
+      <c r="J466" s="3"/>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A467" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B467" s="9">
+        <v>10</v>
+      </c>
+      <c r="C467" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D467" s="12">
+        <v>6</v>
+      </c>
+      <c r="E467" s="12">
+        <v>44</v>
+      </c>
+      <c r="F467" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G467" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H467" s="12">
+        <v>8</v>
+      </c>
+      <c r="I467" s="3"/>
+      <c r="J467" s="3"/>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A468" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B468" s="9">
+        <v>10</v>
+      </c>
+      <c r="C468" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D468" s="12">
+        <v>7</v>
+      </c>
+      <c r="E468" s="12">
+        <v>14</v>
+      </c>
+      <c r="F468" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G468" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H468" s="12">
+        <v>6</v>
+      </c>
+      <c r="I468" s="3"/>
+      <c r="J468" s="3"/>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A469" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B469" s="9">
+        <v>10</v>
+      </c>
+      <c r="C469" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D469" s="12">
+        <v>8</v>
+      </c>
+      <c r="E469" s="12">
+        <v>27</v>
+      </c>
+      <c r="F469" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G469" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H469" s="12">
+        <v>4</v>
+      </c>
+      <c r="I469" s="3"/>
+      <c r="J469" s="3"/>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A470" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B470" s="9">
+        <v>10</v>
+      </c>
+      <c r="C470" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D470" s="12">
+        <v>9</v>
+      </c>
+      <c r="E470" s="12">
+        <v>31</v>
+      </c>
+      <c r="F470" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G470" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H470" s="12">
+        <v>2</v>
+      </c>
+      <c r="I470" s="3"/>
+      <c r="J470" s="3"/>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A471" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B471" s="9">
+        <v>10</v>
+      </c>
+      <c r="C471" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D471" s="12">
+        <v>10</v>
+      </c>
+      <c r="E471" s="12">
+        <v>55</v>
+      </c>
+      <c r="F471" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G471" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H471" s="12">
+        <v>1</v>
+      </c>
+      <c r="I471" s="3"/>
+      <c r="J471" s="3"/>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A472" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B472" s="9">
+        <v>10</v>
+      </c>
+      <c r="C472" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D472" s="12">
+        <v>11</v>
+      </c>
+      <c r="E472" s="12">
+        <v>87</v>
+      </c>
+      <c r="F472" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G472" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H472" s="12">
+        <v>0</v>
+      </c>
+      <c r="I472" s="3"/>
+      <c r="J472" s="3"/>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A473" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B473" s="9">
+        <v>10</v>
+      </c>
+      <c r="C473" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D473" s="12">
+        <v>12</v>
+      </c>
+      <c r="E473" s="12">
+        <v>22</v>
+      </c>
+      <c r="F473" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G473" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H473" s="12">
+        <v>0</v>
+      </c>
+      <c r="I473" s="3"/>
+      <c r="J473" s="3"/>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A474" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B474" s="9">
+        <v>10</v>
+      </c>
+      <c r="C474" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D474" s="12">
+        <v>13</v>
+      </c>
+      <c r="E474" s="12">
+        <v>43</v>
+      </c>
+      <c r="F474" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G474" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H474" s="12">
+        <v>0</v>
+      </c>
+      <c r="I474" s="3"/>
+      <c r="J474" s="3"/>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A475" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B475" s="9">
+        <v>10</v>
+      </c>
+      <c r="C475" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D475" s="12">
+        <v>14</v>
+      </c>
+      <c r="E475" s="12">
+        <v>5</v>
+      </c>
+      <c r="F475" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G475" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H475" s="12">
+        <v>0</v>
+      </c>
+      <c r="I475" s="3"/>
+      <c r="J475" s="3"/>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A476" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B476" s="9">
+        <v>10</v>
+      </c>
+      <c r="C476" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D476" s="12">
+        <v>15</v>
+      </c>
+      <c r="E476" s="12">
+        <v>10</v>
+      </c>
+      <c r="F476" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G476" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H476" s="12">
+        <v>0</v>
+      </c>
+      <c r="I476" s="3"/>
+      <c r="J476" s="3"/>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A477" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B477" s="9">
+        <v>10</v>
+      </c>
+      <c r="C477" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D477" s="12">
+        <v>16</v>
+      </c>
+      <c r="E477" s="12">
+        <v>6</v>
+      </c>
+      <c r="F477" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G477" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H477" s="12">
+        <v>0</v>
+      </c>
+      <c r="I477" s="3"/>
+      <c r="J477" s="3"/>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A478" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B478" s="9">
+        <v>10</v>
+      </c>
+      <c r="C478" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D478" s="12">
+        <v>17</v>
+      </c>
+      <c r="E478" s="12">
+        <v>18</v>
+      </c>
+      <c r="F478" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G478" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H478" s="12">
+        <v>0</v>
+      </c>
+      <c r="I478" s="3"/>
+      <c r="J478" s="3"/>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A479" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B479" s="9">
+        <v>10</v>
+      </c>
+      <c r="C479" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D479" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E479" s="12">
+        <v>4</v>
+      </c>
+      <c r="F479" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G479" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H479" s="12">
+        <v>0</v>
+      </c>
+      <c r="I479" s="3"/>
+      <c r="J479" s="3"/>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A480" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B480" s="9">
+        <v>10</v>
+      </c>
+      <c r="C480" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D480" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E480" s="12">
+        <v>30</v>
+      </c>
+      <c r="F480" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G480" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H480" s="12">
+        <v>0</v>
+      </c>
+      <c r="I480" s="3"/>
+      <c r="J480" s="3"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A481" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B481" s="9">
+        <v>10</v>
+      </c>
+      <c r="C481" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D481" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E481" s="12">
+        <v>23</v>
+      </c>
+      <c r="F481" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G481" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H481" s="12">
+        <v>0</v>
+      </c>
+      <c r="I481" s="3"/>
+      <c r="J481" s="3"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>2025</v>
+      </c>
+      <c r="B482">
+        <v>11</v>
+      </c>
+      <c r="C482" t="s">
+        <v>12</v>
+      </c>
+      <c r="D482" s="3">
+        <v>1</v>
+      </c>
+      <c r="E482" s="3">
+        <v>4</v>
+      </c>
+      <c r="F482" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G482" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H482" s="4"/>
+      <c r="I482" s="4"/>
+      <c r="J482" s="4"/>
+      <c r="K482" s="3"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>2025</v>
+      </c>
+      <c r="B483">
+        <v>11</v>
+      </c>
+      <c r="C483" t="s">
+        <v>12</v>
+      </c>
+      <c r="D483" s="3">
+        <v>2</v>
+      </c>
+      <c r="E483" s="3">
+        <v>16</v>
+      </c>
+      <c r="F483" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G483" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H483" s="4"/>
+      <c r="I483" s="4"/>
+      <c r="J483" s="4"/>
+      <c r="K483" s="3"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>2025</v>
+      </c>
+      <c r="B484">
+        <v>11</v>
+      </c>
+      <c r="C484" t="s">
+        <v>12</v>
+      </c>
+      <c r="D484" s="3">
+        <v>3</v>
+      </c>
+      <c r="E484" s="3">
+        <v>81</v>
+      </c>
+      <c r="F484" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G484" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H484" s="4"/>
+      <c r="I484" s="4"/>
+      <c r="J484" s="4"/>
+      <c r="K484" s="3"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>2025</v>
+      </c>
+      <c r="B485">
+        <v>11</v>
+      </c>
+      <c r="C485" t="s">
+        <v>12</v>
+      </c>
+      <c r="D485" s="3">
+        <v>4</v>
+      </c>
+      <c r="E485" s="3">
+        <v>44</v>
+      </c>
+      <c r="F485" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G485" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H485" s="4"/>
+      <c r="I485" s="4"/>
+      <c r="J485" s="4"/>
+      <c r="K485" s="3"/>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>2025</v>
+      </c>
+      <c r="B486">
+        <v>11</v>
+      </c>
+      <c r="C486" t="s">
+        <v>12</v>
+      </c>
+      <c r="D486" s="3">
+        <v>5</v>
+      </c>
+      <c r="E486" s="3">
+        <v>63</v>
+      </c>
+      <c r="F486" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G486" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H486" s="4"/>
+      <c r="I486" s="4"/>
+      <c r="J486" s="4"/>
+      <c r="K486" s="3"/>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>2025</v>
+      </c>
+      <c r="B487">
+        <v>11</v>
+      </c>
+      <c r="C487" t="s">
+        <v>12</v>
+      </c>
+      <c r="D487" s="3">
+        <v>6</v>
+      </c>
+      <c r="E487" s="3">
+        <v>30</v>
+      </c>
+      <c r="F487" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G487" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H487" s="4"/>
+      <c r="I487" s="4"/>
+      <c r="J487" s="4"/>
+      <c r="K487" s="3"/>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>2025</v>
+      </c>
+      <c r="B488">
+        <v>11</v>
+      </c>
+      <c r="C488" t="s">
+        <v>12</v>
+      </c>
+      <c r="D488" s="3">
+        <v>7</v>
+      </c>
+      <c r="E488" s="3">
+        <v>1</v>
+      </c>
+      <c r="F488" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H488" s="4"/>
+      <c r="I488" s="4"/>
+      <c r="J488" s="4"/>
+      <c r="K488" s="3"/>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>2025</v>
+      </c>
+      <c r="B489">
+        <v>11</v>
+      </c>
+      <c r="C489" t="s">
+        <v>12</v>
+      </c>
+      <c r="D489" s="3">
+        <v>8</v>
+      </c>
+      <c r="E489" s="3">
+        <v>5</v>
+      </c>
+      <c r="F489" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G489" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H489" s="4"/>
+      <c r="I489" s="4"/>
+      <c r="J489" s="4"/>
+      <c r="K489" s="3"/>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>2025</v>
+      </c>
+      <c r="B490">
+        <v>11</v>
+      </c>
+      <c r="C490" t="s">
+        <v>12</v>
+      </c>
+      <c r="D490" s="3">
+        <v>9</v>
+      </c>
+      <c r="E490" s="3">
+        <v>12</v>
+      </c>
+      <c r="F490" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G490" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H490" s="4"/>
+      <c r="I490" s="4"/>
+      <c r="J490" s="4"/>
+      <c r="K490" s="3"/>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>2025</v>
+      </c>
+      <c r="B491">
+        <v>11</v>
+      </c>
+      <c r="C491" t="s">
+        <v>12</v>
+      </c>
+      <c r="D491" s="3">
+        <v>10</v>
+      </c>
+      <c r="E491" s="3">
+        <v>10</v>
+      </c>
+      <c r="F491" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G491" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H491" s="4"/>
+      <c r="I491" s="4"/>
+      <c r="J491" s="4"/>
+      <c r="K491" s="3"/>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>2025</v>
+      </c>
+      <c r="B492">
+        <v>11</v>
+      </c>
+      <c r="C492" t="s">
+        <v>12</v>
+      </c>
+      <c r="D492" s="3">
+        <v>11</v>
+      </c>
+      <c r="E492" s="3">
+        <v>14</v>
+      </c>
+      <c r="F492" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G492" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H492" s="4"/>
+      <c r="I492" s="4"/>
+      <c r="J492" s="3"/>
+      <c r="K492" s="3"/>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>2025</v>
+      </c>
+      <c r="B493">
+        <v>11</v>
+      </c>
+      <c r="C493" t="s">
+        <v>12</v>
+      </c>
+      <c r="D493" s="3">
+        <v>12</v>
+      </c>
+      <c r="E493" s="3">
+        <v>23</v>
+      </c>
+      <c r="F493" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G493" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H493" s="4"/>
+      <c r="I493" s="4"/>
+      <c r="J493" s="3"/>
+      <c r="K493" s="3"/>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>2025</v>
+      </c>
+      <c r="B494">
+        <v>11</v>
+      </c>
+      <c r="C494" t="s">
+        <v>12</v>
+      </c>
+      <c r="D494" s="3">
+        <v>13</v>
+      </c>
+      <c r="E494" s="3">
+        <v>6</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H494" s="4"/>
+      <c r="I494" s="4"/>
+      <c r="J494" s="3"/>
+      <c r="K494" s="3"/>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>2025</v>
+      </c>
+      <c r="B495">
+        <v>11</v>
+      </c>
+      <c r="C495" t="s">
+        <v>12</v>
+      </c>
+      <c r="D495" s="3">
+        <v>14</v>
+      </c>
+      <c r="E495" s="3">
+        <v>43</v>
+      </c>
+      <c r="F495" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H495" s="4"/>
+      <c r="I495" s="4"/>
+      <c r="J495" s="3"/>
+      <c r="K495" s="3"/>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>2025</v>
+      </c>
+      <c r="B496">
+        <v>11</v>
+      </c>
+      <c r="C496" t="s">
+        <v>12</v>
+      </c>
+      <c r="D496" s="3">
+        <v>15</v>
+      </c>
+      <c r="E496" s="3">
+        <v>87</v>
+      </c>
+      <c r="F496" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H496" s="4"/>
+      <c r="I496" s="4"/>
+      <c r="J496" s="3"/>
+      <c r="K496" s="3"/>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>2025</v>
+      </c>
+      <c r="B497">
+        <v>11</v>
+      </c>
+      <c r="C497" t="s">
+        <v>12</v>
+      </c>
+      <c r="D497" s="3">
+        <v>16</v>
+      </c>
+      <c r="E497" s="3">
+        <v>18</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H497" s="4"/>
+      <c r="I497" s="3"/>
+      <c r="J497" s="3"/>
+      <c r="K497" s="3"/>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>2025</v>
+      </c>
+      <c r="B498">
+        <v>11</v>
+      </c>
+      <c r="C498" t="s">
+        <v>12</v>
+      </c>
+      <c r="D498" s="3">
+        <v>17</v>
+      </c>
+      <c r="E498" s="3">
+        <v>31</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H498" s="4"/>
+      <c r="I498" s="3"/>
+      <c r="J498" s="3"/>
+      <c r="K498" s="3"/>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>2025</v>
+      </c>
+      <c r="B499">
+        <v>11</v>
+      </c>
+      <c r="C499" t="s">
+        <v>12</v>
+      </c>
+      <c r="D499" s="3">
+        <v>18</v>
+      </c>
+      <c r="E499" s="3">
+        <v>22</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G499" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H499" s="4"/>
+      <c r="I499" s="3"/>
+      <c r="J499" s="3"/>
+      <c r="K499" s="3"/>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>2025</v>
+      </c>
+      <c r="B500">
+        <v>11</v>
+      </c>
+      <c r="C500" t="s">
+        <v>12</v>
+      </c>
+      <c r="D500" s="3">
+        <v>19</v>
+      </c>
+      <c r="E500" s="3">
+        <v>55</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H500" s="4"/>
+      <c r="I500" s="3"/>
+      <c r="J500" s="3"/>
+      <c r="K500" s="3"/>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>2025</v>
+      </c>
+      <c r="B501">
+        <v>11</v>
+      </c>
+      <c r="C501" t="s">
+        <v>12</v>
+      </c>
+      <c r="D501" s="3">
+        <v>20</v>
+      </c>
+      <c r="E501" s="3">
+        <v>27</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G501" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H501" s="4"/>
+      <c r="I501" s="3"/>
+      <c r="J501" s="3"/>
+      <c r="K501" s="3"/>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A502" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B502" s="9">
+        <v>11</v>
+      </c>
+      <c r="C502" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D502" s="12">
+        <v>1</v>
+      </c>
+      <c r="E502" s="12">
+        <v>4</v>
+      </c>
+      <c r="F502" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G502" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H502" s="12">
+        <v>25</v>
+      </c>
+      <c r="I502" s="4"/>
+      <c r="J502" s="3"/>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A503" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B503" s="9">
+        <v>11</v>
+      </c>
+      <c r="C503" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D503" s="12">
+        <v>2</v>
+      </c>
+      <c r="E503" s="12">
+        <v>81</v>
+      </c>
+      <c r="F503" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G503" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H503" s="12">
+        <v>18</v>
+      </c>
+      <c r="I503" s="3"/>
+      <c r="J503" s="3"/>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A504" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B504" s="9">
+        <v>11</v>
+      </c>
+      <c r="C504" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D504" s="12">
+        <v>3</v>
+      </c>
+      <c r="E504" s="12">
+        <v>16</v>
+      </c>
+      <c r="F504" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G504" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H504" s="12">
+        <v>15</v>
+      </c>
+      <c r="I504" s="3"/>
+      <c r="J504" s="3"/>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A505" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B505" s="9">
+        <v>11</v>
+      </c>
+      <c r="C505" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D505" s="12">
+        <v>4</v>
+      </c>
+      <c r="E505" s="12">
+        <v>44</v>
+      </c>
+      <c r="F505" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G505" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H505" s="12">
+        <v>12</v>
+      </c>
+      <c r="I505" s="3"/>
+      <c r="J505" s="3"/>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A506" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B506" s="9">
+        <v>11</v>
+      </c>
+      <c r="C506" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D506" s="12">
+        <v>5</v>
+      </c>
+      <c r="E506" s="12">
+        <v>63</v>
+      </c>
+      <c r="F506" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G506" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H506" s="12">
+        <v>10</v>
+      </c>
+      <c r="I506" s="3"/>
+      <c r="J506" s="3"/>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A507" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B507" s="9">
+        <v>11</v>
+      </c>
+      <c r="C507" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D507" s="12">
+        <v>6</v>
+      </c>
+      <c r="E507" s="12">
+        <v>30</v>
+      </c>
+      <c r="F507" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G507" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H507" s="12">
+        <v>8</v>
+      </c>
+      <c r="I507" s="3"/>
+      <c r="J507" s="3"/>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A508" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B508" s="9">
+        <v>11</v>
+      </c>
+      <c r="C508" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D508" s="12">
+        <v>7</v>
+      </c>
+      <c r="E508" s="12">
+        <v>14</v>
+      </c>
+      <c r="F508" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G508" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H508" s="12">
+        <v>6</v>
+      </c>
+      <c r="I508" s="3"/>
+      <c r="J508" s="3"/>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A509" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B509" s="9">
+        <v>11</v>
+      </c>
+      <c r="C509" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D509" s="12">
+        <v>8</v>
+      </c>
+      <c r="E509" s="12">
+        <v>5</v>
+      </c>
+      <c r="F509" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G509" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H509" s="12">
+        <v>4</v>
+      </c>
+      <c r="I509" s="3"/>
+      <c r="J509" s="3"/>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A510" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B510" s="9">
+        <v>11</v>
+      </c>
+      <c r="C510" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D510" s="12">
+        <v>9</v>
+      </c>
+      <c r="E510" s="12">
+        <v>27</v>
+      </c>
+      <c r="F510" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G510" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H510" s="12">
+        <v>2</v>
+      </c>
+      <c r="I510" s="3"/>
+      <c r="J510" s="3"/>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A511" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B511" s="9">
+        <v>11</v>
+      </c>
+      <c r="C511" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D511" s="12">
+        <v>10</v>
+      </c>
+      <c r="E511" s="12">
+        <v>31</v>
+      </c>
+      <c r="F511" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G511" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H511" s="12">
+        <v>1</v>
+      </c>
+      <c r="I511" s="3"/>
+      <c r="J511" s="3"/>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A512" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B512" s="9">
+        <v>11</v>
+      </c>
+      <c r="C512" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D512" s="12">
+        <v>11</v>
+      </c>
+      <c r="E512" s="12">
+        <v>87</v>
+      </c>
+      <c r="F512" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G512" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H512" s="12">
+        <v>0</v>
+      </c>
+      <c r="I512" s="3"/>
+      <c r="J512" s="3"/>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A513" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B513" s="9">
+        <v>11</v>
+      </c>
+      <c r="C513" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D513" s="12">
+        <v>12</v>
+      </c>
+      <c r="E513" s="12">
+        <v>6</v>
+      </c>
+      <c r="F513" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G513" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H513" s="12">
+        <v>0</v>
+      </c>
+      <c r="I513" s="3"/>
+      <c r="J513" s="3"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A514" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B514" s="9">
+        <v>11</v>
+      </c>
+      <c r="C514" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D514" s="12">
+        <v>13</v>
+      </c>
+      <c r="E514" s="12">
+        <v>10</v>
+      </c>
+      <c r="F514" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G514" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H514" s="12">
+        <v>0</v>
+      </c>
+      <c r="I514" s="3"/>
+      <c r="J514" s="3"/>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A515" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B515" s="9">
+        <v>11</v>
+      </c>
+      <c r="C515" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D515" s="12">
+        <v>14</v>
+      </c>
+      <c r="E515" s="12">
+        <v>18</v>
+      </c>
+      <c r="F515" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G515" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H515" s="12">
+        <v>0</v>
+      </c>
+      <c r="I515" s="3"/>
+      <c r="J515" s="3"/>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A516" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B516" s="9">
+        <v>11</v>
+      </c>
+      <c r="C516" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D516" s="12">
+        <v>15</v>
+      </c>
+      <c r="E516" s="12">
+        <v>43</v>
+      </c>
+      <c r="F516" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G516" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H516" s="12">
+        <v>0</v>
+      </c>
+      <c r="I516" s="3"/>
+      <c r="J516" s="3"/>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A517" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B517" s="9">
+        <v>11</v>
+      </c>
+      <c r="C517" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D517" s="12">
+        <v>16</v>
+      </c>
+      <c r="E517" s="12">
+        <v>22</v>
+      </c>
+      <c r="F517" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G517" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H517" s="12">
+        <v>0</v>
+      </c>
+      <c r="I517" s="3"/>
+      <c r="J517" s="3"/>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A518" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B518" s="9">
+        <v>11</v>
+      </c>
+      <c r="C518" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D518" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E518" s="12">
+        <v>23</v>
+      </c>
+      <c r="F518" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G518" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H518" s="12">
+        <v>0</v>
+      </c>
+      <c r="I518" s="3"/>
+      <c r="J518" s="3"/>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A519" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B519" s="9">
+        <v>11</v>
+      </c>
+      <c r="C519" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D519" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E519" s="12">
+        <v>1</v>
+      </c>
+      <c r="F519" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G519" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H519" s="12">
+        <v>0</v>
+      </c>
+      <c r="I519" s="3"/>
+      <c r="J519" s="3"/>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A520" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B520" s="9">
+        <v>11</v>
+      </c>
+      <c r="C520" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D520" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E520" s="12">
+        <v>12</v>
+      </c>
+      <c r="F520" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G520" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H520" s="12">
+        <v>0</v>
+      </c>
+      <c r="I520" s="3"/>
+      <c r="J520" s="3"/>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A521" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B521" s="9">
+        <v>11</v>
+      </c>
+      <c r="C521" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D521" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E521" s="12">
+        <v>55</v>
+      </c>
+      <c r="F521" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G521" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H521" s="12">
+        <v>0</v>
+      </c>
+      <c r="I521" s="3"/>
+      <c r="J521" s="3"/>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>2025</v>
+      </c>
+      <c r="B522">
+        <v>12</v>
+      </c>
+      <c r="C522" t="s">
+        <v>12</v>
+      </c>
+      <c r="D522" s="3">
+        <v>1</v>
+      </c>
+      <c r="E522" s="3">
+        <v>1</v>
+      </c>
+      <c r="F522" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G522" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H522" s="4"/>
+      <c r="I522" s="4"/>
+      <c r="J522" s="4"/>
+      <c r="K522" s="3"/>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>2025</v>
+      </c>
+      <c r="B523">
+        <v>12</v>
+      </c>
+      <c r="C523" t="s">
+        <v>12</v>
+      </c>
+      <c r="D523" s="3">
+        <v>2</v>
+      </c>
+      <c r="E523" s="3">
+        <v>81</v>
+      </c>
+      <c r="F523" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G523" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H523" s="4"/>
+      <c r="I523" s="4"/>
+      <c r="J523" s="4"/>
+      <c r="K523" s="3"/>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>2025</v>
+      </c>
+      <c r="B524">
+        <v>12</v>
+      </c>
+      <c r="C524" t="s">
+        <v>12</v>
+      </c>
+      <c r="D524" s="3">
+        <v>3</v>
+      </c>
+      <c r="E524" s="3">
+        <v>4</v>
+      </c>
+      <c r="F524" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G524" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H524" s="4"/>
+      <c r="I524" s="4"/>
+      <c r="J524" s="4"/>
+      <c r="K524" s="3"/>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>2025</v>
+      </c>
+      <c r="B525">
+        <v>12</v>
+      </c>
+      <c r="C525" t="s">
+        <v>12</v>
+      </c>
+      <c r="D525" s="3">
+        <v>4</v>
+      </c>
+      <c r="E525" s="3">
+        <v>63</v>
+      </c>
+      <c r="F525" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G525" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H525" s="4"/>
+      <c r="I525" s="4"/>
+      <c r="J525" s="4"/>
+      <c r="K525" s="3"/>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>2025</v>
+      </c>
+      <c r="B526">
+        <v>12</v>
+      </c>
+      <c r="C526" t="s">
+        <v>12</v>
+      </c>
+      <c r="D526" s="3">
+        <v>5</v>
+      </c>
+      <c r="E526" s="3">
+        <v>44</v>
+      </c>
+      <c r="F526" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G526" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H526" s="4"/>
+      <c r="I526" s="4"/>
+      <c r="J526" s="4"/>
+      <c r="K526" s="3"/>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>2025</v>
+      </c>
+      <c r="B527">
+        <v>12</v>
+      </c>
+      <c r="C527" t="s">
+        <v>12</v>
+      </c>
+      <c r="D527" s="3">
+        <v>6</v>
+      </c>
+      <c r="E527" s="3">
+        <v>16</v>
+      </c>
+      <c r="F527" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H527" s="4"/>
+      <c r="I527" s="4"/>
+      <c r="J527" s="4"/>
+      <c r="K527" s="3"/>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>2025</v>
+      </c>
+      <c r="B528">
+        <v>12</v>
+      </c>
+      <c r="C528" t="s">
+        <v>12</v>
+      </c>
+      <c r="D528" s="3">
+        <v>7</v>
+      </c>
+      <c r="E528" s="3">
+        <v>12</v>
+      </c>
+      <c r="F528" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H528" s="4"/>
+      <c r="I528" s="4"/>
+      <c r="J528" s="4"/>
+      <c r="K528" s="3"/>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>2025</v>
+      </c>
+      <c r="B529">
+        <v>12</v>
+      </c>
+      <c r="C529" t="s">
+        <v>12</v>
+      </c>
+      <c r="D529" s="3">
+        <v>8</v>
+      </c>
+      <c r="E529" s="3">
+        <v>87</v>
+      </c>
+      <c r="F529" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H529" s="4"/>
+      <c r="I529" s="4"/>
+      <c r="J529" s="4"/>
+      <c r="K529" s="3"/>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>2025</v>
+      </c>
+      <c r="B530">
+        <v>12</v>
+      </c>
+      <c r="C530" t="s">
+        <v>12</v>
+      </c>
+      <c r="D530" s="3">
+        <v>9</v>
+      </c>
+      <c r="E530" s="3">
+        <v>14</v>
+      </c>
+      <c r="F530" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H530" s="4"/>
+      <c r="I530" s="4"/>
+      <c r="J530" s="4"/>
+      <c r="K530" s="3"/>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>2025</v>
+      </c>
+      <c r="B531">
+        <v>12</v>
+      </c>
+      <c r="C531" t="s">
+        <v>12</v>
+      </c>
+      <c r="D531" s="3">
+        <v>10</v>
+      </c>
+      <c r="E531" s="3">
+        <v>10</v>
+      </c>
+      <c r="F531" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H531" s="4"/>
+      <c r="I531" s="4"/>
+      <c r="J531" s="4"/>
+      <c r="K531" s="3"/>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>2025</v>
+      </c>
+      <c r="B532">
+        <v>12</v>
+      </c>
+      <c r="C532" t="s">
+        <v>12</v>
+      </c>
+      <c r="D532" s="3">
+        <v>11</v>
+      </c>
+      <c r="E532" s="3">
+        <v>55</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H532" s="4"/>
+      <c r="I532" s="4"/>
+      <c r="J532" s="3"/>
+      <c r="K532" s="3"/>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>2025</v>
+      </c>
+      <c r="B533">
+        <v>12</v>
+      </c>
+      <c r="C533" t="s">
+        <v>12</v>
+      </c>
+      <c r="D533" s="3">
+        <v>12</v>
+      </c>
+      <c r="E533" s="3">
+        <v>22</v>
+      </c>
+      <c r="F533" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G533" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H533" s="4"/>
+      <c r="I533" s="4"/>
+      <c r="J533" s="3"/>
+      <c r="K533" s="3"/>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>2025</v>
+      </c>
+      <c r="B534">
+        <v>12</v>
+      </c>
+      <c r="C534" t="s">
+        <v>12</v>
+      </c>
+      <c r="D534" s="3">
+        <v>13</v>
+      </c>
+      <c r="E534" s="3">
+        <v>6</v>
+      </c>
+      <c r="F534" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G534" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H534" s="4"/>
+      <c r="I534" s="4"/>
+      <c r="J534" s="3"/>
+      <c r="K534" s="3"/>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>2025</v>
+      </c>
+      <c r="B535">
+        <v>12</v>
+      </c>
+      <c r="C535" t="s">
+        <v>12</v>
+      </c>
+      <c r="D535" s="3">
+        <v>14</v>
+      </c>
+      <c r="E535" s="3">
+        <v>23</v>
+      </c>
+      <c r="F535" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G535" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H535" s="4"/>
+      <c r="I535" s="4"/>
+      <c r="J535" s="3"/>
+      <c r="K535" s="3"/>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>2025</v>
+      </c>
+      <c r="B536">
+        <v>12</v>
+      </c>
+      <c r="C536" t="s">
+        <v>12</v>
+      </c>
+      <c r="D536" s="3">
+        <v>15</v>
+      </c>
+      <c r="E536" s="3">
+        <v>31</v>
+      </c>
+      <c r="F536" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H536" s="4"/>
+      <c r="I536" s="4"/>
+      <c r="J536" s="3"/>
+      <c r="K536" s="3"/>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>2025</v>
+      </c>
+      <c r="B537">
+        <v>12</v>
+      </c>
+      <c r="C537" t="s">
+        <v>12</v>
+      </c>
+      <c r="D537" s="3">
+        <v>16</v>
+      </c>
+      <c r="E537" s="3">
+        <v>30</v>
+      </c>
+      <c r="F537" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G537" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H537" s="4"/>
+      <c r="I537" s="3"/>
+      <c r="J537" s="3"/>
+      <c r="K537" s="3"/>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>2025</v>
+      </c>
+      <c r="B538">
+        <v>12</v>
+      </c>
+      <c r="C538" t="s">
+        <v>12</v>
+      </c>
+      <c r="D538" s="3">
+        <v>17</v>
+      </c>
+      <c r="E538" s="3">
+        <v>5</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G538" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H538" s="4"/>
+      <c r="I538" s="3"/>
+      <c r="J538" s="3"/>
+      <c r="K538" s="3"/>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>2025</v>
+      </c>
+      <c r="B539">
+        <v>12</v>
+      </c>
+      <c r="C539" t="s">
+        <v>12</v>
+      </c>
+      <c r="D539" s="3">
+        <v>18</v>
+      </c>
+      <c r="E539" s="3">
+        <v>18</v>
+      </c>
+      <c r="F539" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G539" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H539" s="4"/>
+      <c r="I539" s="3"/>
+      <c r="J539" s="3"/>
+      <c r="K539" s="3"/>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>2025</v>
+      </c>
+      <c r="B540">
+        <v>12</v>
+      </c>
+      <c r="C540" t="s">
+        <v>12</v>
+      </c>
+      <c r="D540" s="3">
+        <v>19</v>
+      </c>
+      <c r="E540" s="3">
+        <v>27</v>
+      </c>
+      <c r="F540" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G540" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H540" s="4"/>
+      <c r="I540" s="3"/>
+      <c r="J540" s="3"/>
+      <c r="K540" s="3"/>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>2025</v>
+      </c>
+      <c r="B541">
+        <v>12</v>
+      </c>
+      <c r="C541" t="s">
+        <v>12</v>
+      </c>
+      <c r="D541" s="3">
+        <v>20</v>
+      </c>
+      <c r="E541" s="3">
+        <v>43</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G541" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H541" s="4"/>
+      <c r="I541" s="3"/>
+      <c r="J541" s="3"/>
+      <c r="K541" s="3"/>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A542" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B542" s="9">
+        <v>12</v>
+      </c>
+      <c r="C542" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D542" s="12">
+        <v>1</v>
+      </c>
+      <c r="E542" s="12">
+        <v>4</v>
+      </c>
+      <c r="F542" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G542" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H542" s="12">
+        <v>25</v>
+      </c>
+      <c r="I542" s="4"/>
+      <c r="J542" s="3"/>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A543" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B543" s="9">
+        <v>12</v>
+      </c>
+      <c r="C543" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D543" s="12">
+        <v>2</v>
+      </c>
+      <c r="E543" s="12">
+        <v>81</v>
+      </c>
+      <c r="F543" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G543" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H543" s="12">
+        <v>18</v>
+      </c>
+      <c r="I543" s="3"/>
+      <c r="J543" s="3"/>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A544" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B544" s="9">
+        <v>12</v>
+      </c>
+      <c r="C544" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D544" s="12">
+        <v>3</v>
+      </c>
+      <c r="E544" s="12">
+        <v>27</v>
+      </c>
+      <c r="F544" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G544" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H544" s="12">
+        <v>15</v>
+      </c>
+      <c r="I544" s="3"/>
+      <c r="J544" s="3"/>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A545" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B545" s="9">
+        <v>12</v>
+      </c>
+      <c r="C545" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D545" s="12">
+        <v>4</v>
+      </c>
+      <c r="E545" s="12">
+        <v>44</v>
+      </c>
+      <c r="F545" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G545" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H545" s="12">
+        <v>12</v>
+      </c>
+      <c r="I545" s="3"/>
+      <c r="J545" s="3"/>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A546" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B546" s="9">
+        <v>12</v>
+      </c>
+      <c r="C546" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D546" s="12">
+        <v>5</v>
+      </c>
+      <c r="E546" s="12">
+        <v>1</v>
+      </c>
+      <c r="F546" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G546" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H546" s="12">
+        <v>10</v>
+      </c>
+      <c r="I546" s="3"/>
+      <c r="J546" s="3"/>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A547" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B547" s="9">
+        <v>12</v>
+      </c>
+      <c r="C547" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D547" s="12">
+        <v>6</v>
+      </c>
+      <c r="E547" s="12">
+        <v>10</v>
+      </c>
+      <c r="F547" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G547" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H547" s="12">
+        <v>8</v>
+      </c>
+      <c r="I547" s="3"/>
+      <c r="J547" s="3"/>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A548" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B548" s="9">
+        <v>12</v>
+      </c>
+      <c r="C548" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D548" s="12">
+        <v>7</v>
+      </c>
+      <c r="E548" s="12">
+        <v>18</v>
+      </c>
+      <c r="F548" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G548" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H548" s="12">
+        <v>6</v>
+      </c>
+      <c r="I548" s="3"/>
+      <c r="J548" s="3"/>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A549" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B549" s="9">
+        <v>12</v>
+      </c>
+      <c r="C549" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D549" s="12">
+        <v>8</v>
+      </c>
+      <c r="E549" s="12">
+        <v>23</v>
+      </c>
+      <c r="F549" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G549" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H549" s="12">
+        <v>4</v>
+      </c>
+      <c r="I549" s="3"/>
+      <c r="J549" s="3"/>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A550" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B550" s="9">
+        <v>12</v>
+      </c>
+      <c r="C550" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D550" s="12">
+        <v>9</v>
+      </c>
+      <c r="E550" s="12">
+        <v>14</v>
+      </c>
+      <c r="F550" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G550" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H550" s="12">
+        <v>2</v>
+      </c>
+      <c r="I550" s="3"/>
+      <c r="J550" s="3"/>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A551" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B551" s="9">
+        <v>12</v>
+      </c>
+      <c r="C551" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D551" s="12">
+        <v>10</v>
+      </c>
+      <c r="E551" s="12">
+        <v>63</v>
+      </c>
+      <c r="F551" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G551" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H551" s="12">
+        <v>1</v>
+      </c>
+      <c r="I551" s="3"/>
+      <c r="J551" s="3"/>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A552" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B552" s="9">
+        <v>12</v>
+      </c>
+      <c r="C552" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D552" s="12">
+        <v>11</v>
+      </c>
+      <c r="E552" s="12">
+        <v>87</v>
+      </c>
+      <c r="F552" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G552" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H552" s="12">
+        <v>0</v>
+      </c>
+      <c r="I552" s="3"/>
+      <c r="J552" s="3"/>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A553" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B553" s="9">
+        <v>12</v>
+      </c>
+      <c r="C553" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D553" s="12">
+        <v>12</v>
+      </c>
+      <c r="E553" s="12">
+        <v>55</v>
+      </c>
+      <c r="F553" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G553" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H553" s="12">
+        <v>0</v>
+      </c>
+      <c r="I553" s="3"/>
+      <c r="J553" s="3"/>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A554" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B554" s="9">
+        <v>12</v>
+      </c>
+      <c r="C554" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D554" s="12">
+        <v>13</v>
+      </c>
+      <c r="E554" s="12">
+        <v>31</v>
+      </c>
+      <c r="F554" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G554" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H554" s="12">
+        <v>0</v>
+      </c>
+      <c r="I554" s="3"/>
+      <c r="J554" s="3"/>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A555" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B555" s="9">
+        <v>12</v>
+      </c>
+      <c r="C555" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D555" s="12">
+        <v>14</v>
+      </c>
+      <c r="E555" s="12">
+        <v>16</v>
+      </c>
+      <c r="F555" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G555" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H555" s="12">
+        <v>0</v>
+      </c>
+      <c r="I555" s="3"/>
+      <c r="J555" s="3"/>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A556" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B556" s="9">
+        <v>12</v>
+      </c>
+      <c r="C556" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D556" s="12">
+        <v>15</v>
+      </c>
+      <c r="E556" s="12">
+        <v>22</v>
+      </c>
+      <c r="F556" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G556" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H556" s="12">
+        <v>0</v>
+      </c>
+      <c r="I556" s="3"/>
+      <c r="J556" s="3"/>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A557" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B557" s="9">
+        <v>12</v>
+      </c>
+      <c r="C557" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D557" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E557" s="12">
+        <v>12</v>
+      </c>
+      <c r="F557" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G557" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H557" s="12">
+        <v>0</v>
+      </c>
+      <c r="I557" s="3"/>
+      <c r="J557" s="3"/>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A558" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B558" s="9">
+        <v>12</v>
+      </c>
+      <c r="C558" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D558" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E558" s="12">
+        <v>6</v>
+      </c>
+      <c r="F558" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G558" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H558" s="12">
+        <v>0</v>
+      </c>
+      <c r="I558" s="3"/>
+      <c r="J558" s="3"/>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A559" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B559" s="9">
+        <v>12</v>
+      </c>
+      <c r="C559" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D559" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E559" s="12">
+        <v>5</v>
+      </c>
+      <c r="F559" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G559" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H559" s="12">
+        <v>0</v>
+      </c>
+      <c r="I559" s="3"/>
+      <c r="J559" s="3"/>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A560" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B560" s="9">
+        <v>12</v>
+      </c>
+      <c r="C560" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D560" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E560" s="12">
+        <v>30</v>
+      </c>
+      <c r="F560" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G560" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H560" s="12">
+        <v>0</v>
+      </c>
+      <c r="I560" s="3"/>
+      <c r="J560" s="3"/>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A561" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B561" s="9">
+        <v>12</v>
+      </c>
+      <c r="C561" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D561" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E561" s="12">
+        <v>43</v>
+      </c>
+      <c r="F561" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G561" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H561" s="12">
+        <v>0</v>
+      </c>
+      <c r="I561" s="3"/>
+      <c r="J561" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H561" xr:uid="{247AF3E6-8BD7-40DE-ACC7-21D4F916BD21}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -15238,21 +19524,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBA989A-6AF3-4DE7-8F02-8EEC97A7AF0E}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -15263,13 +19550,16 @@
         <v>61</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15279,14 +19569,17 @@
       <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15296,14 +19589,17 @@
       <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15313,14 +19609,17 @@
       <c r="C4" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15330,14 +19629,17 @@
       <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15347,14 +19649,17 @@
       <c r="C6" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15364,14 +19669,17 @@
       <c r="C7" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15381,14 +19689,17 @@
       <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15398,14 +19709,17 @@
       <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15415,14 +19729,17 @@
       <c r="C10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15432,14 +19749,17 @@
       <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15449,14 +19769,17 @@
       <c r="C12" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15466,14 +19789,17 @@
       <c r="C13" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15483,129 +19809,173 @@
       <c r="C14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>31</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>87</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F22" t="s">
         <v>129</v>
       </c>
     </row>
@@ -15618,20 +19988,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6416958C-91BE-4D31-98B6-7EE6ADB36633}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="D5" sqref="C4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -15642,10 +20013,13 @@
         <v>49</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15655,11 +20029,14 @@
       <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15669,11 +20046,14 @@
       <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15683,11 +20063,14 @@
       <c r="C4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15697,11 +20080,14 @@
       <c r="C5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15711,11 +20097,14 @@
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15725,11 +20114,14 @@
       <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15739,11 +20131,14 @@
       <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15753,11 +20148,14 @@
       <c r="C9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15767,11 +20165,14 @@
       <c r="C10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15781,9 +20182,92 @@
       <c r="C11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" t="s">
         <v>86</v>
       </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/docs/datas/f1.xlsx
+++ b/public/docs/datas/f1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\vue_platform\public\docs\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAD0F23-E11E-4D4B-B942-450D0834C025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC9C3AE-7EDD-41B0-BAAD-7A3822317E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5376" yWindow="4512" windowWidth="24228" windowHeight="19140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16728" yWindow="6204" windowWidth="21216" windowHeight="18828" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rounds" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="220">
   <si>
     <t>year</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -926,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -952,7 +952,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -968,6 +967,1931 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>581</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>582</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3153" name="AutoShape 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1F7592-2054-B57E-C943-A55A166D8DE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="101826060"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>581</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>582</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3154" name="AutoShape 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672DB597-3D24-1E9F-0D73-2C221718FC03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="101826060"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>582</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3155" name="AutoShape 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E85D10C-13EF-56CE-138F-DCBEE96E5BC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="102001320"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>582</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3156" name="AutoShape 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F84F4F-C9AC-E101-BDCE-16939E39BD6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="102001320"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>584</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3157" name="AutoShape 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CAD4C19-2B02-8C3D-27EA-FFD44DFB661F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="102176580"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>584</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3158" name="AutoShape 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664EC55E-7F31-FE30-7DEE-67302CDBAB77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="102176580"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>584</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>585</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3159" name="AutoShape 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC83C424-F00E-DD55-6221-2BF2A2616F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="102351840"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>584</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>585</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3160" name="AutoShape 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B11E00B0-CDAB-62CF-5D17-FD7EBE92A0C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="102351840"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>585</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>586</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3161" name="AutoShape 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33209DE9-85A5-70E5-833D-2B6118700504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="102527100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>585</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>586</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3162" name="AutoShape 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC74CE6-0864-A999-8335-275349DA2ACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="102527100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>586</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>587</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3163" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5270EE43-8F71-B4B9-052F-5312514A1790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="102702360"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>586</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>587</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3164" name="AutoShape 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDA486E-44EB-1F95-A5DF-4D75B13B8476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="102702360"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>587</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>588</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3165" name="AutoShape 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C32A49C-8BDA-4D6B-B0F1-FCC3603533CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="102877620"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>587</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>588</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3166" name="AutoShape 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCECC00E-91B9-397E-3ED6-6695E371A3E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="102877620"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>588</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>589</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3167" name="AutoShape 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D9A736-CA52-2C7A-113A-9C7EF7307EC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="103052880"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>588</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>589</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3168" name="AutoShape 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B4B545-25BC-44F2-EEB0-8628497207DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="103052880"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>589</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>590</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3169" name="AutoShape 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA553B0A-E8ED-0FA1-975F-004A678B7726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="103228140"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>589</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>590</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3170" name="AutoShape 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E69B2A-8A4C-62DC-C6BE-9E4F19483947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="103228140"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>590</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>591</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3171" name="AutoShape 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8608FBC-1164-5F70-981F-2727D406227B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="103403400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>590</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>591</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3172" name="AutoShape 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045BDAB3-D9FE-189E-1E3B-93C4EE8ADE8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="103403400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>591</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>592</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3173" name="AutoShape 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E93BFA-DE07-886D-5CA2-B1E1F13C560C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="103578660"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>591</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>592</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3174" name="AutoShape 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1024DE9A-BA76-E5AB-1F90-2A27772C3911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="103578660"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>592</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>593</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3175" name="AutoShape 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6640290E-2EB7-71BA-EDFC-1D56D8F88377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="103753920"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>592</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>593</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3176" name="AutoShape 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C472805-9B24-9027-0F40-AA47A43F7620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="103753920"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>593</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>594</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3177" name="AutoShape 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3334953C-1300-4044-50ED-C60C6FE7BEDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="103929180"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>593</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>594</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3178" name="AutoShape 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBA1F81-A103-E775-9EF6-1A3111DF11CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="103929180"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>594</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>595</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3179" name="AutoShape 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E20B471-0822-5C5B-3DF0-093AF364338A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="104104440"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>594</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>595</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3180" name="AutoShape 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E432A0-5CE5-AD7D-259D-496B6922F01C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="104104440"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>595</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3181" name="AutoShape 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D26DE36-95CD-FCDF-CC1D-0C301655BFB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="104279700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>595</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3182" name="AutoShape 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A357113-F285-ABA3-551D-60487C75AA69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="104279700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>597</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3183" name="AutoShape 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E18AF99-0F9E-CC36-D948-481310E494D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="104454960"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>597</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3184" name="AutoShape 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87362D51-D576-D50C-1A5D-F7EC470D6461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="104454960"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>597</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>598</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3185" name="AutoShape 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F94E4A-E2E0-3677-E006-31675E33B04A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="104630220"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>597</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>598</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3186" name="AutoShape 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E6B4B5-CA8E-F296-E13F-262245C200CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="104630220"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>598</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>599</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3187" name="AutoShape 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DEBFE6D-1EF1-BD00-143C-F57FE85F70D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="104805480"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>598</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>599</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3188" name="AutoShape 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CBFCB7-F573-C847-637E-4FE82DA100DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="104805480"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>599</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>600</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3189" name="AutoShape 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC558CF-821F-F1D6-8AFC-05F57CA166F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="104980740"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>599</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>600</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3190" name="AutoShape 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA05CD41-B9F3-9207-D3F4-087CF62FBD9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="104980740"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>600</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>601</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3191" name="AutoShape 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E7E008-784C-8AD8-987E-DA1D639C1669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="105156000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>600</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>601</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3192" name="AutoShape 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D739D42-3E05-1F8D-8B84-35E61986BFE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4152900" y="105156000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1949,8 +3873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE98A03A-8BBD-4D33-889D-72E5D2A17E08}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3346,6 +5270,12 @@
       <c r="D62" s="1">
         <v>45863</v>
       </c>
+      <c r="E62" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="G62">
         <v>0</v>
       </c>
@@ -3363,6 +5293,12 @@
       <c r="D63" s="1">
         <v>45863</v>
       </c>
+      <c r="E63" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.96805555555555556</v>
+      </c>
       <c r="G63">
         <v>1</v>
       </c>
@@ -3380,6 +5316,12 @@
       <c r="D64" s="1">
         <v>45864</v>
       </c>
+      <c r="E64" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="G64">
         <v>1</v>
       </c>
@@ -3397,6 +5339,12 @@
       <c r="D65" s="1">
         <v>45864</v>
       </c>
+      <c r="E65" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G65">
         <v>1</v>
       </c>
@@ -3414,6 +5362,9 @@
       <c r="D66" s="1">
         <v>45865</v>
       </c>
+      <c r="E66" s="2">
+        <v>0.875</v>
+      </c>
       <c r="G66">
         <v>1</v>
       </c>
@@ -3431,6 +5382,12 @@
       <c r="D67" s="1">
         <v>45870</v>
       </c>
+      <c r="E67" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="G67">
         <v>0</v>
       </c>
@@ -3448,6 +5405,12 @@
       <c r="D68" s="1">
         <v>45870</v>
       </c>
+      <c r="E68" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
       <c r="G68">
         <v>0</v>
       </c>
@@ -3465,6 +5428,12 @@
       <c r="D69" s="1">
         <v>45871</v>
       </c>
+      <c r="E69" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.8125</v>
+      </c>
       <c r="G69">
         <v>0</v>
       </c>
@@ -3482,6 +5451,12 @@
       <c r="D70" s="1">
         <v>45871</v>
       </c>
+      <c r="E70" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G70">
         <v>1</v>
       </c>
@@ -3498,6 +5473,9 @@
       </c>
       <c r="D71" s="1">
         <v>45872</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.875</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -4361,10 +6339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247AF3E6-8BD7-40DE-ACC7-21D4F916BD21}">
-  <dimension ref="A1:R561"/>
+  <dimension ref="A1:R681"/>
   <sheetViews>
-    <sheetView topLeftCell="A511" workbookViewId="0">
-      <selection activeCell="F544" sqref="F544"/>
+    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
+      <selection activeCell="G666" sqref="G666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4376,6 +6354,7 @@
     <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.109375" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -13516,7 +15495,6 @@
       <c r="H342" s="10">
         <v>25</v>
       </c>
-      <c r="K342" s="13"/>
       <c r="N342" s="6"/>
       <c r="O342" s="5"/>
       <c r="P342" s="5"/>
@@ -13547,7 +15525,6 @@
       <c r="H343" s="9">
         <v>18</v>
       </c>
-      <c r="K343" s="13"/>
     </row>
     <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" s="9">
@@ -13574,7 +15551,6 @@
       <c r="H344" s="9">
         <v>15</v>
       </c>
-      <c r="K344" s="13"/>
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" s="9">
@@ -13601,7 +15577,6 @@
       <c r="H345" s="9">
         <v>12</v>
       </c>
-      <c r="K345" s="13"/>
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" s="9">
@@ -13628,7 +15603,6 @@
       <c r="H346" s="9">
         <v>10</v>
       </c>
-      <c r="K346" s="13"/>
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" s="9">
@@ -13655,7 +15629,6 @@
       <c r="H347" s="9">
         <v>8</v>
       </c>
-      <c r="K347" s="13"/>
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" s="9">
@@ -13682,7 +15655,6 @@
       <c r="H348" s="9">
         <v>6</v>
       </c>
-      <c r="K348" s="13"/>
     </row>
     <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" s="9">
@@ -13709,7 +15681,6 @@
       <c r="H349" s="9">
         <v>4</v>
       </c>
-      <c r="K349" s="13"/>
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" s="9">
@@ -13736,7 +15707,6 @@
       <c r="H350" s="9">
         <v>2</v>
       </c>
-      <c r="K350" s="13"/>
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" s="9">
@@ -13763,7 +15733,6 @@
       <c r="H351" s="9">
         <v>1</v>
       </c>
-      <c r="K351" s="13"/>
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" s="9">
@@ -13790,7 +15759,6 @@
       <c r="H352" s="9">
         <v>0</v>
       </c>
-      <c r="K352" s="13"/>
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" s="9">
@@ -13817,7 +15785,6 @@
       <c r="H353" s="9">
         <v>0</v>
       </c>
-      <c r="K353" s="13"/>
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" s="9">
@@ -13844,7 +15811,6 @@
       <c r="H354" s="9">
         <v>0</v>
       </c>
-      <c r="K354" s="13"/>
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" s="9">
@@ -13871,7 +15837,6 @@
       <c r="H355" s="9">
         <v>0</v>
       </c>
-      <c r="K355" s="13"/>
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" s="9">
@@ -13898,7 +15863,6 @@
       <c r="H356" s="9">
         <v>0</v>
       </c>
-      <c r="K356" s="13"/>
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" s="9">
@@ -13925,7 +15889,6 @@
       <c r="H357" s="9">
         <v>0</v>
       </c>
-      <c r="K357" s="13"/>
     </row>
     <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" s="9">
@@ -13952,7 +15915,6 @@
       <c r="H358" s="9">
         <v>0</v>
       </c>
-      <c r="K358" s="13"/>
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" s="9">
@@ -13979,7 +15941,6 @@
       <c r="H359" s="9">
         <v>0</v>
       </c>
-      <c r="K359" s="13"/>
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" s="9">
@@ -14006,7 +15967,6 @@
       <c r="H360" s="9">
         <v>0</v>
       </c>
-      <c r="K360" s="13"/>
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" s="9">
@@ -14033,7 +15993,6 @@
       <c r="H361" s="9">
         <v>0</v>
       </c>
-      <c r="K361" s="13"/>
     </row>
     <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362">
@@ -19486,7 +21445,7 @@
       <c r="I560" s="3"/>
       <c r="J560" s="3"/>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A561" s="9">
         <v>2025</v>
       </c>
@@ -19513,12 +21472,3129 @@
       </c>
       <c r="I561" s="3"/>
       <c r="J561" s="3"/>
+    </row>
+    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>2025</v>
+      </c>
+      <c r="B562">
+        <v>13</v>
+      </c>
+      <c r="C562" t="s">
+        <v>169</v>
+      </c>
+      <c r="D562">
+        <v>1</v>
+      </c>
+      <c r="E562">
+        <v>81</v>
+      </c>
+      <c r="F562" t="s">
+        <v>19</v>
+      </c>
+      <c r="G562" t="s">
+        <v>184</v>
+      </c>
+      <c r="N562" s="8"/>
+      <c r="O562" s="8"/>
+      <c r="P562" s="8"/>
+    </row>
+    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>2025</v>
+      </c>
+      <c r="B563">
+        <v>13</v>
+      </c>
+      <c r="C563" t="s">
+        <v>169</v>
+      </c>
+      <c r="D563">
+        <v>2</v>
+      </c>
+      <c r="E563">
+        <v>1</v>
+      </c>
+      <c r="F563" t="s">
+        <v>20</v>
+      </c>
+      <c r="G563" t="s">
+        <v>189</v>
+      </c>
+      <c r="N563" s="8"/>
+      <c r="O563" s="8"/>
+      <c r="P563" s="8"/>
+    </row>
+    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>2025</v>
+      </c>
+      <c r="B564">
+        <v>13</v>
+      </c>
+      <c r="C564" t="s">
+        <v>169</v>
+      </c>
+      <c r="D564">
+        <v>3</v>
+      </c>
+      <c r="E564">
+        <v>4</v>
+      </c>
+      <c r="F564" t="s">
+        <v>17</v>
+      </c>
+      <c r="G564" t="s">
+        <v>184</v>
+      </c>
+      <c r="N564" s="8"/>
+      <c r="O564" s="8"/>
+      <c r="P564" s="8"/>
+    </row>
+    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>2025</v>
+      </c>
+      <c r="B565">
+        <v>13</v>
+      </c>
+      <c r="C565" t="s">
+        <v>169</v>
+      </c>
+      <c r="D565">
+        <v>4</v>
+      </c>
+      <c r="E565">
+        <v>16</v>
+      </c>
+      <c r="F565" t="s">
+        <v>28</v>
+      </c>
+      <c r="G565" t="s">
+        <v>29</v>
+      </c>
+      <c r="N565" s="8"/>
+      <c r="O565" s="8"/>
+      <c r="P565" s="8"/>
+    </row>
+    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>2025</v>
+      </c>
+      <c r="B566">
+        <v>13</v>
+      </c>
+      <c r="C566" t="s">
+        <v>169</v>
+      </c>
+      <c r="D566">
+        <v>5</v>
+      </c>
+      <c r="E566">
+        <v>31</v>
+      </c>
+      <c r="F566" t="s">
+        <v>44</v>
+      </c>
+      <c r="G566" t="s">
+        <v>191</v>
+      </c>
+      <c r="N566" s="8"/>
+      <c r="O566" s="8"/>
+      <c r="P566" s="8"/>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>2025</v>
+      </c>
+      <c r="B567">
+        <v>13</v>
+      </c>
+      <c r="C567" t="s">
+        <v>169</v>
+      </c>
+      <c r="D567">
+        <v>6</v>
+      </c>
+      <c r="E567">
+        <v>55</v>
+      </c>
+      <c r="F567" t="s">
+        <v>33</v>
+      </c>
+      <c r="G567" t="s">
+        <v>190</v>
+      </c>
+      <c r="N567" s="8"/>
+      <c r="O567" s="8"/>
+      <c r="P567" s="8"/>
+    </row>
+    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>2025</v>
+      </c>
+      <c r="B568">
+        <v>13</v>
+      </c>
+      <c r="C568" t="s">
+        <v>169</v>
+      </c>
+      <c r="D568">
+        <v>7</v>
+      </c>
+      <c r="E568">
+        <v>87</v>
+      </c>
+      <c r="F568" t="s">
+        <v>46</v>
+      </c>
+      <c r="G568" t="s">
+        <v>191</v>
+      </c>
+      <c r="N568" s="8"/>
+      <c r="O568" s="8"/>
+      <c r="P568" s="8"/>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>2025</v>
+      </c>
+      <c r="B569">
+        <v>13</v>
+      </c>
+      <c r="C569" t="s">
+        <v>169</v>
+      </c>
+      <c r="D569">
+        <v>8</v>
+      </c>
+      <c r="E569">
+        <v>10</v>
+      </c>
+      <c r="F569" t="s">
+        <v>31</v>
+      </c>
+      <c r="G569" t="s">
+        <v>187</v>
+      </c>
+      <c r="N569" s="8"/>
+      <c r="O569" s="8"/>
+      <c r="P569" s="8"/>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>2025</v>
+      </c>
+      <c r="B570">
+        <v>13</v>
+      </c>
+      <c r="C570" t="s">
+        <v>169</v>
+      </c>
+      <c r="D570">
+        <v>9</v>
+      </c>
+      <c r="E570">
+        <v>6</v>
+      </c>
+      <c r="F570" t="s">
+        <v>34</v>
+      </c>
+      <c r="G570" t="s">
+        <v>186</v>
+      </c>
+      <c r="N570" s="8"/>
+      <c r="O570" s="8"/>
+      <c r="P570" s="8"/>
+    </row>
+    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>2025</v>
+      </c>
+      <c r="B571">
+        <v>13</v>
+      </c>
+      <c r="C571" t="s">
+        <v>169</v>
+      </c>
+      <c r="D571">
+        <v>10</v>
+      </c>
+      <c r="E571">
+        <v>5</v>
+      </c>
+      <c r="F571" t="s">
+        <v>39</v>
+      </c>
+      <c r="G571" t="s">
+        <v>185</v>
+      </c>
+      <c r="N571" s="8"/>
+      <c r="O571" s="8"/>
+      <c r="P571" s="8"/>
+    </row>
+    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>2025</v>
+      </c>
+      <c r="B572">
+        <v>13</v>
+      </c>
+      <c r="C572" t="s">
+        <v>169</v>
+      </c>
+      <c r="D572">
+        <v>11</v>
+      </c>
+      <c r="E572">
+        <v>30</v>
+      </c>
+      <c r="F572" t="s">
+        <v>43</v>
+      </c>
+      <c r="G572" t="s">
+        <v>186</v>
+      </c>
+      <c r="N572" s="8"/>
+      <c r="O572" s="8"/>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>2025</v>
+      </c>
+      <c r="B573">
+        <v>13</v>
+      </c>
+      <c r="C573" t="s">
+        <v>169</v>
+      </c>
+      <c r="D573">
+        <v>12</v>
+      </c>
+      <c r="E573">
+        <v>22</v>
+      </c>
+      <c r="F573" t="s">
+        <v>24</v>
+      </c>
+      <c r="G573" t="s">
+        <v>189</v>
+      </c>
+      <c r="N573" s="8"/>
+      <c r="O573" s="8"/>
+    </row>
+    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>2025</v>
+      </c>
+      <c r="B574">
+        <v>13</v>
+      </c>
+      <c r="C574" t="s">
+        <v>169</v>
+      </c>
+      <c r="D574">
+        <v>13</v>
+      </c>
+      <c r="E574">
+        <v>63</v>
+      </c>
+      <c r="F574" t="s">
+        <v>22</v>
+      </c>
+      <c r="G574" t="s">
+        <v>23</v>
+      </c>
+      <c r="N574" s="8"/>
+      <c r="O574" s="8"/>
+    </row>
+    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>2025</v>
+      </c>
+      <c r="B575">
+        <v>13</v>
+      </c>
+      <c r="C575" t="s">
+        <v>169</v>
+      </c>
+      <c r="D575">
+        <v>14</v>
+      </c>
+      <c r="E575">
+        <v>14</v>
+      </c>
+      <c r="F575" t="s">
+        <v>35</v>
+      </c>
+      <c r="G575" t="s">
+        <v>188</v>
+      </c>
+      <c r="N575" s="8"/>
+      <c r="O575" s="8"/>
+    </row>
+    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>2025</v>
+      </c>
+      <c r="B576">
+        <v>13</v>
+      </c>
+      <c r="C576" t="s">
+        <v>169</v>
+      </c>
+      <c r="D576">
+        <v>15</v>
+      </c>
+      <c r="E576">
+        <v>18</v>
+      </c>
+      <c r="F576" t="s">
+        <v>37</v>
+      </c>
+      <c r="G576" t="s">
+        <v>188</v>
+      </c>
+      <c r="N576" s="8"/>
+      <c r="O576" s="8"/>
+    </row>
+    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>2025</v>
+      </c>
+      <c r="B577">
+        <v>13</v>
+      </c>
+      <c r="C577" t="s">
+        <v>169</v>
+      </c>
+      <c r="D577">
+        <v>16</v>
+      </c>
+      <c r="E577">
+        <v>23</v>
+      </c>
+      <c r="F577" t="s">
+        <v>26</v>
+      </c>
+      <c r="G577" t="s">
+        <v>190</v>
+      </c>
+      <c r="N577" s="8"/>
+    </row>
+    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>2025</v>
+      </c>
+      <c r="B578">
+        <v>13</v>
+      </c>
+      <c r="C578" t="s">
+        <v>169</v>
+      </c>
+      <c r="D578">
+        <v>17</v>
+      </c>
+      <c r="E578">
+        <v>27</v>
+      </c>
+      <c r="F578" t="s">
+        <v>42</v>
+      </c>
+      <c r="G578" t="s">
+        <v>185</v>
+      </c>
+      <c r="N578" s="8"/>
+    </row>
+    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>2025</v>
+      </c>
+      <c r="B579">
+        <v>13</v>
+      </c>
+      <c r="C579" t="s">
+        <v>169</v>
+      </c>
+      <c r="D579">
+        <v>18</v>
+      </c>
+      <c r="E579">
+        <v>44</v>
+      </c>
+      <c r="F579" t="s">
+        <v>30</v>
+      </c>
+      <c r="G579" t="s">
+        <v>29</v>
+      </c>
+      <c r="N579" s="8"/>
+    </row>
+    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>2025</v>
+      </c>
+      <c r="B580">
+        <v>13</v>
+      </c>
+      <c r="C580" t="s">
+        <v>169</v>
+      </c>
+      <c r="D580">
+        <v>19</v>
+      </c>
+      <c r="E580">
+        <v>43</v>
+      </c>
+      <c r="F580" t="s">
+        <v>181</v>
+      </c>
+      <c r="G580" t="s">
+        <v>187</v>
+      </c>
+      <c r="N580" s="8"/>
+    </row>
+    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>2025</v>
+      </c>
+      <c r="B581">
+        <v>13</v>
+      </c>
+      <c r="C581" t="s">
+        <v>169</v>
+      </c>
+      <c r="D581">
+        <v>20</v>
+      </c>
+      <c r="E581">
+        <v>12</v>
+      </c>
+      <c r="F581" t="s">
+        <v>41</v>
+      </c>
+      <c r="G581" t="s">
+        <v>23</v>
+      </c>
+      <c r="N581" s="8"/>
+    </row>
+    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A582" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B582" s="9">
+        <v>13</v>
+      </c>
+      <c r="C582" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D582" s="12">
+        <v>1</v>
+      </c>
+      <c r="E582" s="12">
+        <v>1</v>
+      </c>
+      <c r="F582" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G582" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H582" s="12">
+        <v>8</v>
+      </c>
+      <c r="I582" s="4"/>
+      <c r="J582" s="3"/>
+    </row>
+    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A583" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B583" s="9">
+        <v>13</v>
+      </c>
+      <c r="C583" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D583" s="12">
+        <v>2</v>
+      </c>
+      <c r="E583" s="12">
+        <v>81</v>
+      </c>
+      <c r="F583" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G583" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H583" s="12">
+        <v>7</v>
+      </c>
+      <c r="I583" s="3"/>
+      <c r="J583" s="3"/>
+    </row>
+    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A584" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B584" s="9">
+        <v>13</v>
+      </c>
+      <c r="C584" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D584" s="12">
+        <v>3</v>
+      </c>
+      <c r="E584" s="12">
+        <v>4</v>
+      </c>
+      <c r="F584" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G584" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H584" s="12">
+        <v>6</v>
+      </c>
+      <c r="I584" s="3"/>
+      <c r="J584" s="3"/>
+    </row>
+    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A585" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B585" s="9">
+        <v>13</v>
+      </c>
+      <c r="C585" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D585" s="12">
+        <v>4</v>
+      </c>
+      <c r="E585" s="12">
+        <v>16</v>
+      </c>
+      <c r="F585" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G585" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H585" s="12">
+        <v>5</v>
+      </c>
+      <c r="I585" s="3"/>
+      <c r="J585" s="3"/>
+    </row>
+    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A586" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B586" s="9">
+        <v>13</v>
+      </c>
+      <c r="C586" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D586" s="12">
+        <v>5</v>
+      </c>
+      <c r="E586" s="12">
+        <v>31</v>
+      </c>
+      <c r="F586" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G586" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H586" s="12">
+        <v>4</v>
+      </c>
+      <c r="I586" s="3"/>
+      <c r="J586" s="3"/>
+    </row>
+    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A587" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B587" s="9">
+        <v>13</v>
+      </c>
+      <c r="C587" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D587" s="12">
+        <v>6</v>
+      </c>
+      <c r="E587" s="12">
+        <v>55</v>
+      </c>
+      <c r="F587" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G587" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H587" s="12">
+        <v>3</v>
+      </c>
+      <c r="I587" s="3"/>
+      <c r="J587" s="3"/>
+    </row>
+    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A588" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B588" s="9">
+        <v>13</v>
+      </c>
+      <c r="C588" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D588" s="12">
+        <v>7</v>
+      </c>
+      <c r="E588" s="12">
+        <v>87</v>
+      </c>
+      <c r="F588" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G588" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H588" s="12">
+        <v>2</v>
+      </c>
+      <c r="I588" s="3"/>
+      <c r="J588" s="3"/>
+    </row>
+    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A589" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B589" s="9">
+        <v>13</v>
+      </c>
+      <c r="C589" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D589" s="12">
+        <v>8</v>
+      </c>
+      <c r="E589" s="12">
+        <v>6</v>
+      </c>
+      <c r="F589" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G589" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H589" s="12">
+        <v>1</v>
+      </c>
+      <c r="I589" s="3"/>
+      <c r="J589" s="3"/>
+    </row>
+    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A590" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B590" s="9">
+        <v>13</v>
+      </c>
+      <c r="C590" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D590" s="12">
+        <v>9</v>
+      </c>
+      <c r="E590" s="12">
+        <v>5</v>
+      </c>
+      <c r="F590" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G590" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H590" s="12">
+        <v>0</v>
+      </c>
+      <c r="I590" s="3"/>
+      <c r="J590" s="3"/>
+    </row>
+    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A591" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B591" s="9">
+        <v>13</v>
+      </c>
+      <c r="C591" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D591" s="12">
+        <v>10</v>
+      </c>
+      <c r="E591" s="12">
+        <v>30</v>
+      </c>
+      <c r="F591" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G591" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H591" s="12">
+        <v>0</v>
+      </c>
+      <c r="I591" s="3"/>
+      <c r="J591" s="3"/>
+    </row>
+    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A592" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B592" s="9">
+        <v>13</v>
+      </c>
+      <c r="C592" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D592" s="12">
+        <v>11</v>
+      </c>
+      <c r="E592" s="12">
+        <v>22</v>
+      </c>
+      <c r="F592" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G592" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H592" s="12">
+        <v>0</v>
+      </c>
+      <c r="I592" s="3"/>
+      <c r="J592" s="3"/>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A593" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B593" s="9">
+        <v>13</v>
+      </c>
+      <c r="C593" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D593" s="12">
+        <v>12</v>
+      </c>
+      <c r="E593" s="12">
+        <v>63</v>
+      </c>
+      <c r="F593" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G593" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H593" s="12">
+        <v>0</v>
+      </c>
+      <c r="I593" s="3"/>
+      <c r="J593" s="3"/>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A594" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B594" s="9">
+        <v>13</v>
+      </c>
+      <c r="C594" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D594" s="12">
+        <v>13</v>
+      </c>
+      <c r="E594" s="12">
+        <v>18</v>
+      </c>
+      <c r="F594" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G594" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H594" s="12">
+        <v>0</v>
+      </c>
+      <c r="I594" s="3"/>
+      <c r="J594" s="3"/>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A595" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B595" s="9">
+        <v>13</v>
+      </c>
+      <c r="C595" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D595" s="12">
+        <v>14</v>
+      </c>
+      <c r="E595" s="12">
+        <v>14</v>
+      </c>
+      <c r="F595" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G595" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H595" s="12">
+        <v>0</v>
+      </c>
+      <c r="I595" s="3"/>
+      <c r="J595" s="3"/>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A596" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B596" s="9">
+        <v>13</v>
+      </c>
+      <c r="C596" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D596" s="12">
+        <v>15</v>
+      </c>
+      <c r="E596" s="12">
+        <v>44</v>
+      </c>
+      <c r="F596" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G596" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H596" s="12">
+        <v>0</v>
+      </c>
+      <c r="I596" s="3"/>
+      <c r="J596" s="3"/>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A597" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B597" s="9">
+        <v>13</v>
+      </c>
+      <c r="C597" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D597" s="12">
+        <v>16</v>
+      </c>
+      <c r="E597" s="12">
+        <v>23</v>
+      </c>
+      <c r="F597" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G597" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H597" s="12">
+        <v>0</v>
+      </c>
+      <c r="I597" s="3"/>
+      <c r="J597" s="3"/>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A598" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B598" s="9">
+        <v>13</v>
+      </c>
+      <c r="C598" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D598" s="12">
+        <v>17</v>
+      </c>
+      <c r="E598" s="12">
+        <v>12</v>
+      </c>
+      <c r="F598" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G598" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H598" s="12">
+        <v>0</v>
+      </c>
+      <c r="I598" s="3"/>
+      <c r="J598" s="3"/>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A599" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B599" s="9">
+        <v>13</v>
+      </c>
+      <c r="C599" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D599" s="12">
+        <v>18</v>
+      </c>
+      <c r="E599" s="12">
+        <v>27</v>
+      </c>
+      <c r="F599" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G599" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H599" s="12">
+        <v>0</v>
+      </c>
+      <c r="I599" s="3"/>
+      <c r="J599" s="3"/>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A600" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B600" s="9">
+        <v>13</v>
+      </c>
+      <c r="C600" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D600" s="12">
+        <v>19</v>
+      </c>
+      <c r="E600" s="12">
+        <v>43</v>
+      </c>
+      <c r="F600" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G600" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H600" s="12">
+        <v>0</v>
+      </c>
+      <c r="I600" s="3"/>
+      <c r="J600" s="3"/>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A601" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B601" s="9">
+        <v>13</v>
+      </c>
+      <c r="C601" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D601" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E601" s="12">
+        <v>10</v>
+      </c>
+      <c r="F601" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G601" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H601" s="12">
+        <v>0</v>
+      </c>
+      <c r="I601" s="3"/>
+      <c r="J601" s="3"/>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>2025</v>
+      </c>
+      <c r="B602">
+        <v>13</v>
+      </c>
+      <c r="C602" t="s">
+        <v>12</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
+      </c>
+      <c r="E602">
+        <v>4</v>
+      </c>
+      <c r="F602" t="s">
+        <v>17</v>
+      </c>
+      <c r="G602" t="s">
+        <v>184</v>
+      </c>
+      <c r="H602" s="8"/>
+      <c r="I602" s="8"/>
+      <c r="J602" s="8"/>
+    </row>
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>2025</v>
+      </c>
+      <c r="B603">
+        <v>13</v>
+      </c>
+      <c r="C603" t="s">
+        <v>12</v>
+      </c>
+      <c r="D603">
+        <v>2</v>
+      </c>
+      <c r="E603">
+        <v>81</v>
+      </c>
+      <c r="F603" t="s">
+        <v>19</v>
+      </c>
+      <c r="G603" t="s">
+        <v>184</v>
+      </c>
+      <c r="H603" s="8"/>
+      <c r="I603" s="8"/>
+      <c r="J603" s="8"/>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>2025</v>
+      </c>
+      <c r="B604">
+        <v>13</v>
+      </c>
+      <c r="C604" t="s">
+        <v>12</v>
+      </c>
+      <c r="D604">
+        <v>3</v>
+      </c>
+      <c r="E604">
+        <v>16</v>
+      </c>
+      <c r="F604" t="s">
+        <v>28</v>
+      </c>
+      <c r="G604" t="s">
+        <v>29</v>
+      </c>
+      <c r="H604" s="8"/>
+      <c r="I604" s="8"/>
+      <c r="J604" s="8"/>
+    </row>
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>2025</v>
+      </c>
+      <c r="B605">
+        <v>13</v>
+      </c>
+      <c r="C605" t="s">
+        <v>12</v>
+      </c>
+      <c r="D605">
+        <v>4</v>
+      </c>
+      <c r="E605">
+        <v>1</v>
+      </c>
+      <c r="F605" t="s">
+        <v>20</v>
+      </c>
+      <c r="G605" t="s">
+        <v>189</v>
+      </c>
+      <c r="H605" s="8"/>
+      <c r="I605" s="8"/>
+      <c r="J605" s="8"/>
+    </row>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>2025</v>
+      </c>
+      <c r="B606">
+        <v>13</v>
+      </c>
+      <c r="C606" t="s">
+        <v>12</v>
+      </c>
+      <c r="D606">
+        <v>5</v>
+      </c>
+      <c r="E606">
+        <v>23</v>
+      </c>
+      <c r="F606" t="s">
+        <v>26</v>
+      </c>
+      <c r="G606" t="s">
+        <v>190</v>
+      </c>
+      <c r="H606" s="8"/>
+      <c r="I606" s="8"/>
+      <c r="J606" s="8"/>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>2025</v>
+      </c>
+      <c r="B607">
+        <v>13</v>
+      </c>
+      <c r="C607" t="s">
+        <v>12</v>
+      </c>
+      <c r="D607">
+        <v>6</v>
+      </c>
+      <c r="E607">
+        <v>63</v>
+      </c>
+      <c r="F607" t="s">
+        <v>22</v>
+      </c>
+      <c r="G607" t="s">
+        <v>23</v>
+      </c>
+      <c r="H607" s="8"/>
+      <c r="I607" s="8"/>
+      <c r="J607" s="8"/>
+    </row>
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>2025</v>
+      </c>
+      <c r="B608">
+        <v>13</v>
+      </c>
+      <c r="C608" t="s">
+        <v>12</v>
+      </c>
+      <c r="D608">
+        <v>7</v>
+      </c>
+      <c r="E608">
+        <v>22</v>
+      </c>
+      <c r="F608" t="s">
+        <v>24</v>
+      </c>
+      <c r="G608" t="s">
+        <v>189</v>
+      </c>
+      <c r="H608" s="8"/>
+      <c r="I608" s="8"/>
+      <c r="J608" s="8"/>
+    </row>
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>2025</v>
+      </c>
+      <c r="B609">
+        <v>13</v>
+      </c>
+      <c r="C609" t="s">
+        <v>12</v>
+      </c>
+      <c r="D609">
+        <v>8</v>
+      </c>
+      <c r="E609">
+        <v>6</v>
+      </c>
+      <c r="F609" t="s">
+        <v>34</v>
+      </c>
+      <c r="G609" t="s">
+        <v>186</v>
+      </c>
+      <c r="H609" s="8"/>
+      <c r="I609" s="8"/>
+      <c r="J609" s="8"/>
+    </row>
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>2025</v>
+      </c>
+      <c r="B610">
+        <v>13</v>
+      </c>
+      <c r="C610" t="s">
+        <v>12</v>
+      </c>
+      <c r="D610">
+        <v>9</v>
+      </c>
+      <c r="E610">
+        <v>30</v>
+      </c>
+      <c r="F610" t="s">
+        <v>43</v>
+      </c>
+      <c r="G610" t="s">
+        <v>186</v>
+      </c>
+      <c r="H610" s="8"/>
+      <c r="I610" s="8"/>
+      <c r="J610" s="8"/>
+    </row>
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>2025</v>
+      </c>
+      <c r="B611">
+        <v>13</v>
+      </c>
+      <c r="C611" t="s">
+        <v>12</v>
+      </c>
+      <c r="D611">
+        <v>10</v>
+      </c>
+      <c r="E611">
+        <v>5</v>
+      </c>
+      <c r="F611" t="s">
+        <v>39</v>
+      </c>
+      <c r="G611" t="s">
+        <v>185</v>
+      </c>
+      <c r="H611" s="8"/>
+      <c r="I611" s="8"/>
+      <c r="J611" s="8"/>
+    </row>
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>2025</v>
+      </c>
+      <c r="B612">
+        <v>13</v>
+      </c>
+      <c r="C612" t="s">
+        <v>12</v>
+      </c>
+      <c r="D612">
+        <v>11</v>
+      </c>
+      <c r="E612">
+        <v>31</v>
+      </c>
+      <c r="F612" t="s">
+        <v>44</v>
+      </c>
+      <c r="G612" t="s">
+        <v>191</v>
+      </c>
+      <c r="H612" s="8"/>
+      <c r="I612" s="8"/>
+    </row>
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>2025</v>
+      </c>
+      <c r="B613">
+        <v>13</v>
+      </c>
+      <c r="C613" t="s">
+        <v>12</v>
+      </c>
+      <c r="D613">
+        <v>12</v>
+      </c>
+      <c r="E613">
+        <v>87</v>
+      </c>
+      <c r="F613" t="s">
+        <v>46</v>
+      </c>
+      <c r="G613" t="s">
+        <v>191</v>
+      </c>
+      <c r="H613" s="8"/>
+      <c r="I613" s="8"/>
+    </row>
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>2025</v>
+      </c>
+      <c r="B614">
+        <v>13</v>
+      </c>
+      <c r="C614" t="s">
+        <v>12</v>
+      </c>
+      <c r="D614">
+        <v>13</v>
+      </c>
+      <c r="E614">
+        <v>10</v>
+      </c>
+      <c r="F614" t="s">
+        <v>31</v>
+      </c>
+      <c r="G614" t="s">
+        <v>187</v>
+      </c>
+      <c r="H614" s="8"/>
+      <c r="I614" s="8"/>
+    </row>
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>2025</v>
+      </c>
+      <c r="B615">
+        <v>13</v>
+      </c>
+      <c r="C615" t="s">
+        <v>12</v>
+      </c>
+      <c r="D615">
+        <v>14</v>
+      </c>
+      <c r="E615">
+        <v>27</v>
+      </c>
+      <c r="F615" t="s">
+        <v>42</v>
+      </c>
+      <c r="G615" t="s">
+        <v>185</v>
+      </c>
+      <c r="H615" s="8"/>
+      <c r="I615" s="8"/>
+    </row>
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>2025</v>
+      </c>
+      <c r="B616">
+        <v>13</v>
+      </c>
+      <c r="C616" t="s">
+        <v>12</v>
+      </c>
+      <c r="D616">
+        <v>15</v>
+      </c>
+      <c r="E616">
+        <v>55</v>
+      </c>
+      <c r="F616" t="s">
+        <v>33</v>
+      </c>
+      <c r="G616" t="s">
+        <v>190</v>
+      </c>
+      <c r="H616" s="8"/>
+      <c r="I616" s="8"/>
+    </row>
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>2025</v>
+      </c>
+      <c r="B617">
+        <v>13</v>
+      </c>
+      <c r="C617" t="s">
+        <v>12</v>
+      </c>
+      <c r="D617">
+        <v>16</v>
+      </c>
+      <c r="E617">
+        <v>44</v>
+      </c>
+      <c r="F617" t="s">
+        <v>30</v>
+      </c>
+      <c r="G617" t="s">
+        <v>29</v>
+      </c>
+      <c r="H617" s="8"/>
+    </row>
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>2025</v>
+      </c>
+      <c r="B618">
+        <v>13</v>
+      </c>
+      <c r="C618" t="s">
+        <v>12</v>
+      </c>
+      <c r="D618">
+        <v>17</v>
+      </c>
+      <c r="E618">
+        <v>43</v>
+      </c>
+      <c r="F618" t="s">
+        <v>181</v>
+      </c>
+      <c r="G618" t="s">
+        <v>187</v>
+      </c>
+      <c r="H618" s="8"/>
+    </row>
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>2025</v>
+      </c>
+      <c r="B619">
+        <v>13</v>
+      </c>
+      <c r="C619" t="s">
+        <v>12</v>
+      </c>
+      <c r="D619">
+        <v>18</v>
+      </c>
+      <c r="E619">
+        <v>12</v>
+      </c>
+      <c r="F619" t="s">
+        <v>41</v>
+      </c>
+      <c r="G619" t="s">
+        <v>23</v>
+      </c>
+      <c r="H619" s="8"/>
+    </row>
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>2025</v>
+      </c>
+      <c r="B620">
+        <v>13</v>
+      </c>
+      <c r="C620" t="s">
+        <v>12</v>
+      </c>
+      <c r="D620">
+        <v>19</v>
+      </c>
+      <c r="E620">
+        <v>14</v>
+      </c>
+      <c r="F620" t="s">
+        <v>35</v>
+      </c>
+      <c r="G620" t="s">
+        <v>188</v>
+      </c>
+      <c r="H620" s="8"/>
+    </row>
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>2025</v>
+      </c>
+      <c r="B621">
+        <v>13</v>
+      </c>
+      <c r="C621" t="s">
+        <v>12</v>
+      </c>
+      <c r="D621">
+        <v>20</v>
+      </c>
+      <c r="E621">
+        <v>18</v>
+      </c>
+      <c r="F621" t="s">
+        <v>37</v>
+      </c>
+      <c r="G621" t="s">
+        <v>188</v>
+      </c>
+      <c r="H621" s="8"/>
+    </row>
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A622" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B622" s="9">
+        <v>13</v>
+      </c>
+      <c r="C622" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D622" s="9">
+        <v>1</v>
+      </c>
+      <c r="E622" s="9">
+        <v>81</v>
+      </c>
+      <c r="F622" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G622" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H622" s="9">
+        <v>25</v>
+      </c>
+      <c r="I622" s="8"/>
+    </row>
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A623" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B623" s="9">
+        <v>13</v>
+      </c>
+      <c r="C623" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D623" s="9">
+        <v>2</v>
+      </c>
+      <c r="E623" s="9">
+        <v>4</v>
+      </c>
+      <c r="F623" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G623" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H623" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A624" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B624" s="9">
+        <v>13</v>
+      </c>
+      <c r="C624" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D624" s="9">
+        <v>3</v>
+      </c>
+      <c r="E624" s="9">
+        <v>16</v>
+      </c>
+      <c r="F624" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G624" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H624" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A625" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B625" s="9">
+        <v>13</v>
+      </c>
+      <c r="C625" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D625" s="9">
+        <v>4</v>
+      </c>
+      <c r="E625" s="9">
+        <v>1</v>
+      </c>
+      <c r="F625" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G625" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H625" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A626" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B626" s="9">
+        <v>13</v>
+      </c>
+      <c r="C626" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D626" s="9">
+        <v>5</v>
+      </c>
+      <c r="E626" s="9">
+        <v>63</v>
+      </c>
+      <c r="F626" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G626" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H626" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A627" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B627" s="9">
+        <v>13</v>
+      </c>
+      <c r="C627" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D627" s="9">
+        <v>6</v>
+      </c>
+      <c r="E627" s="9">
+        <v>23</v>
+      </c>
+      <c r="F627" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G627" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H627" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A628" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B628" s="9">
+        <v>13</v>
+      </c>
+      <c r="C628" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D628" s="9">
+        <v>7</v>
+      </c>
+      <c r="E628" s="9">
+        <v>44</v>
+      </c>
+      <c r="F628" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G628" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H628" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A629" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B629" s="9">
+        <v>13</v>
+      </c>
+      <c r="C629" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D629" s="9">
+        <v>8</v>
+      </c>
+      <c r="E629" s="9">
+        <v>30</v>
+      </c>
+      <c r="F629" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G629" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H629" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A630" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B630" s="9">
+        <v>13</v>
+      </c>
+      <c r="C630" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D630" s="9">
+        <v>9</v>
+      </c>
+      <c r="E630" s="9">
+        <v>5</v>
+      </c>
+      <c r="F630" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G630" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H630" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A631" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B631" s="9">
+        <v>13</v>
+      </c>
+      <c r="C631" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D631" s="9">
+        <v>10</v>
+      </c>
+      <c r="E631" s="9">
+        <v>10</v>
+      </c>
+      <c r="F631" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G631" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H631" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A632" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B632" s="9">
+        <v>13</v>
+      </c>
+      <c r="C632" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D632" s="9">
+        <v>11</v>
+      </c>
+      <c r="E632" s="9">
+        <v>87</v>
+      </c>
+      <c r="F632" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G632" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H632" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A633" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B633" s="9">
+        <v>13</v>
+      </c>
+      <c r="C633" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D633" s="9">
+        <v>12</v>
+      </c>
+      <c r="E633" s="9">
+        <v>27</v>
+      </c>
+      <c r="F633" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G633" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H633" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A634" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B634" s="9">
+        <v>13</v>
+      </c>
+      <c r="C634" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D634" s="9">
+        <v>13</v>
+      </c>
+      <c r="E634" s="9">
+        <v>22</v>
+      </c>
+      <c r="F634" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G634" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H634" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A635" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B635" s="9">
+        <v>13</v>
+      </c>
+      <c r="C635" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D635" s="9">
+        <v>14</v>
+      </c>
+      <c r="E635" s="9">
+        <v>18</v>
+      </c>
+      <c r="F635" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G635" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H635" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A636" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B636" s="9">
+        <v>13</v>
+      </c>
+      <c r="C636" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D636" s="9">
+        <v>15</v>
+      </c>
+      <c r="E636" s="9">
+        <v>31</v>
+      </c>
+      <c r="F636" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G636" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H636" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A637" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B637" s="9">
+        <v>13</v>
+      </c>
+      <c r="C637" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D637" s="9">
+        <v>16</v>
+      </c>
+      <c r="E637" s="9">
+        <v>12</v>
+      </c>
+      <c r="F637" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G637" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H637" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A638" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B638" s="9">
+        <v>13</v>
+      </c>
+      <c r="C638" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D638" s="9">
+        <v>17</v>
+      </c>
+      <c r="E638" s="9">
+        <v>14</v>
+      </c>
+      <c r="F638" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G638" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H638" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A639" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B639" s="9">
+        <v>13</v>
+      </c>
+      <c r="C639" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D639" s="9">
+        <v>18</v>
+      </c>
+      <c r="E639" s="9">
+        <v>55</v>
+      </c>
+      <c r="F639" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G639" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H639" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A640" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B640" s="9">
+        <v>13</v>
+      </c>
+      <c r="C640" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D640" s="9">
+        <v>19</v>
+      </c>
+      <c r="E640" s="9">
+        <v>43</v>
+      </c>
+      <c r="F640" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G640" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H640" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A641" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B641" s="9">
+        <v>13</v>
+      </c>
+      <c r="C641" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D641" s="9">
+        <v>20</v>
+      </c>
+      <c r="E641" s="9">
+        <v>6</v>
+      </c>
+      <c r="F641" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G641" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H641" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>2025</v>
+      </c>
+      <c r="B642">
+        <v>14</v>
+      </c>
+      <c r="C642" t="s">
+        <v>12</v>
+      </c>
+      <c r="D642">
+        <v>1</v>
+      </c>
+      <c r="E642">
+        <v>16</v>
+      </c>
+      <c r="F642" t="s">
+        <v>28</v>
+      </c>
+      <c r="G642" t="s">
+        <v>29</v>
+      </c>
+      <c r="H642" s="8"/>
+      <c r="I642" s="8"/>
+      <c r="J642" s="8"/>
+    </row>
+    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>2025</v>
+      </c>
+      <c r="B643">
+        <v>14</v>
+      </c>
+      <c r="C643" t="s">
+        <v>12</v>
+      </c>
+      <c r="D643">
+        <v>2</v>
+      </c>
+      <c r="E643">
+        <v>81</v>
+      </c>
+      <c r="F643" t="s">
+        <v>19</v>
+      </c>
+      <c r="G643" t="s">
+        <v>184</v>
+      </c>
+      <c r="H643" s="8"/>
+      <c r="I643" s="8"/>
+      <c r="J643" s="8"/>
+    </row>
+    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>2025</v>
+      </c>
+      <c r="B644">
+        <v>14</v>
+      </c>
+      <c r="C644" t="s">
+        <v>12</v>
+      </c>
+      <c r="D644">
+        <v>3</v>
+      </c>
+      <c r="E644">
+        <v>4</v>
+      </c>
+      <c r="F644" t="s">
+        <v>17</v>
+      </c>
+      <c r="G644" t="s">
+        <v>184</v>
+      </c>
+      <c r="H644" s="8"/>
+      <c r="I644" s="8"/>
+      <c r="J644" s="8"/>
+    </row>
+    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>2025</v>
+      </c>
+      <c r="B645">
+        <v>14</v>
+      </c>
+      <c r="C645" t="s">
+        <v>12</v>
+      </c>
+      <c r="D645">
+        <v>4</v>
+      </c>
+      <c r="E645">
+        <v>63</v>
+      </c>
+      <c r="F645" t="s">
+        <v>22</v>
+      </c>
+      <c r="G645" t="s">
+        <v>23</v>
+      </c>
+      <c r="H645" s="8"/>
+      <c r="I645" s="8"/>
+      <c r="J645" s="8"/>
+    </row>
+    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>2025</v>
+      </c>
+      <c r="B646">
+        <v>14</v>
+      </c>
+      <c r="C646" t="s">
+        <v>12</v>
+      </c>
+      <c r="D646">
+        <v>5</v>
+      </c>
+      <c r="E646">
+        <v>14</v>
+      </c>
+      <c r="F646" t="s">
+        <v>35</v>
+      </c>
+      <c r="G646" t="s">
+        <v>188</v>
+      </c>
+      <c r="H646" s="8"/>
+      <c r="I646" s="8"/>
+      <c r="J646" s="8"/>
+    </row>
+    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>2025</v>
+      </c>
+      <c r="B647">
+        <v>14</v>
+      </c>
+      <c r="C647" t="s">
+        <v>12</v>
+      </c>
+      <c r="D647">
+        <v>6</v>
+      </c>
+      <c r="E647">
+        <v>18</v>
+      </c>
+      <c r="F647" t="s">
+        <v>37</v>
+      </c>
+      <c r="G647" t="s">
+        <v>188</v>
+      </c>
+      <c r="H647" s="8"/>
+      <c r="I647" s="8"/>
+      <c r="J647" s="8"/>
+    </row>
+    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>2025</v>
+      </c>
+      <c r="B648">
+        <v>14</v>
+      </c>
+      <c r="C648" t="s">
+        <v>12</v>
+      </c>
+      <c r="D648">
+        <v>7</v>
+      </c>
+      <c r="E648">
+        <v>5</v>
+      </c>
+      <c r="F648" t="s">
+        <v>39</v>
+      </c>
+      <c r="G648" t="s">
+        <v>185</v>
+      </c>
+      <c r="H648" s="8"/>
+      <c r="I648" s="8"/>
+      <c r="J648" s="8"/>
+    </row>
+    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>2025</v>
+      </c>
+      <c r="B649">
+        <v>14</v>
+      </c>
+      <c r="C649" t="s">
+        <v>12</v>
+      </c>
+      <c r="D649">
+        <v>8</v>
+      </c>
+      <c r="E649">
+        <v>1</v>
+      </c>
+      <c r="F649" t="s">
+        <v>20</v>
+      </c>
+      <c r="G649" t="s">
+        <v>189</v>
+      </c>
+      <c r="H649" s="8"/>
+      <c r="I649" s="8"/>
+      <c r="J649" s="8"/>
+    </row>
+    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>2025</v>
+      </c>
+      <c r="B650">
+        <v>14</v>
+      </c>
+      <c r="C650" t="s">
+        <v>12</v>
+      </c>
+      <c r="D650">
+        <v>9</v>
+      </c>
+      <c r="E650">
+        <v>30</v>
+      </c>
+      <c r="F650" t="s">
+        <v>43</v>
+      </c>
+      <c r="G650" t="s">
+        <v>186</v>
+      </c>
+      <c r="H650" s="8"/>
+      <c r="I650" s="8"/>
+      <c r="J650" s="8"/>
+    </row>
+    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>2025</v>
+      </c>
+      <c r="B651">
+        <v>14</v>
+      </c>
+      <c r="C651" t="s">
+        <v>12</v>
+      </c>
+      <c r="D651">
+        <v>10</v>
+      </c>
+      <c r="E651">
+        <v>6</v>
+      </c>
+      <c r="F651" t="s">
+        <v>34</v>
+      </c>
+      <c r="G651" t="s">
+        <v>186</v>
+      </c>
+      <c r="H651" s="8"/>
+      <c r="I651" s="8"/>
+      <c r="J651" s="8"/>
+    </row>
+    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>2025</v>
+      </c>
+      <c r="B652">
+        <v>14</v>
+      </c>
+      <c r="C652" t="s">
+        <v>12</v>
+      </c>
+      <c r="D652">
+        <v>11</v>
+      </c>
+      <c r="E652">
+        <v>87</v>
+      </c>
+      <c r="F652" t="s">
+        <v>46</v>
+      </c>
+      <c r="G652" t="s">
+        <v>191</v>
+      </c>
+      <c r="H652" s="8"/>
+      <c r="I652" s="8"/>
+    </row>
+    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>2025</v>
+      </c>
+      <c r="B653">
+        <v>14</v>
+      </c>
+      <c r="C653" t="s">
+        <v>12</v>
+      </c>
+      <c r="D653">
+        <v>12</v>
+      </c>
+      <c r="E653">
+        <v>44</v>
+      </c>
+      <c r="F653" t="s">
+        <v>30</v>
+      </c>
+      <c r="G653" t="s">
+        <v>29</v>
+      </c>
+      <c r="H653" s="8"/>
+      <c r="I653" s="8"/>
+    </row>
+    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>2025</v>
+      </c>
+      <c r="B654">
+        <v>14</v>
+      </c>
+      <c r="C654" t="s">
+        <v>12</v>
+      </c>
+      <c r="D654">
+        <v>13</v>
+      </c>
+      <c r="E654">
+        <v>55</v>
+      </c>
+      <c r="F654" t="s">
+        <v>33</v>
+      </c>
+      <c r="G654" t="s">
+        <v>190</v>
+      </c>
+      <c r="H654" s="8"/>
+      <c r="I654" s="8"/>
+    </row>
+    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>2025</v>
+      </c>
+      <c r="B655">
+        <v>14</v>
+      </c>
+      <c r="C655" t="s">
+        <v>12</v>
+      </c>
+      <c r="D655">
+        <v>14</v>
+      </c>
+      <c r="E655">
+        <v>43</v>
+      </c>
+      <c r="F655" t="s">
+        <v>181</v>
+      </c>
+      <c r="G655" t="s">
+        <v>187</v>
+      </c>
+      <c r="H655" s="8"/>
+      <c r="I655" s="8"/>
+    </row>
+    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>2025</v>
+      </c>
+      <c r="B656">
+        <v>14</v>
+      </c>
+      <c r="C656" t="s">
+        <v>12</v>
+      </c>
+      <c r="D656">
+        <v>15</v>
+      </c>
+      <c r="E656">
+        <v>12</v>
+      </c>
+      <c r="F656" t="s">
+        <v>41</v>
+      </c>
+      <c r="G656" t="s">
+        <v>23</v>
+      </c>
+      <c r="H656" s="8"/>
+      <c r="I656" s="8"/>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>2025</v>
+      </c>
+      <c r="B657">
+        <v>14</v>
+      </c>
+      <c r="C657" t="s">
+        <v>12</v>
+      </c>
+      <c r="D657">
+        <v>16</v>
+      </c>
+      <c r="E657">
+        <v>22</v>
+      </c>
+      <c r="F657" t="s">
+        <v>24</v>
+      </c>
+      <c r="G657" t="s">
+        <v>189</v>
+      </c>
+      <c r="H657" s="8"/>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>2025</v>
+      </c>
+      <c r="B658">
+        <v>14</v>
+      </c>
+      <c r="C658" t="s">
+        <v>12</v>
+      </c>
+      <c r="D658">
+        <v>17</v>
+      </c>
+      <c r="E658">
+        <v>10</v>
+      </c>
+      <c r="F658" t="s">
+        <v>31</v>
+      </c>
+      <c r="G658" t="s">
+        <v>187</v>
+      </c>
+      <c r="H658" s="8"/>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>2025</v>
+      </c>
+      <c r="B659">
+        <v>14</v>
+      </c>
+      <c r="C659" t="s">
+        <v>12</v>
+      </c>
+      <c r="D659">
+        <v>18</v>
+      </c>
+      <c r="E659">
+        <v>31</v>
+      </c>
+      <c r="F659" t="s">
+        <v>44</v>
+      </c>
+      <c r="G659" t="s">
+        <v>191</v>
+      </c>
+      <c r="H659" s="8"/>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>2025</v>
+      </c>
+      <c r="B660">
+        <v>14</v>
+      </c>
+      <c r="C660" t="s">
+        <v>12</v>
+      </c>
+      <c r="D660">
+        <v>19</v>
+      </c>
+      <c r="E660">
+        <v>27</v>
+      </c>
+      <c r="F660" t="s">
+        <v>42</v>
+      </c>
+      <c r="G660" t="s">
+        <v>185</v>
+      </c>
+      <c r="H660" s="8"/>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>2025</v>
+      </c>
+      <c r="B661">
+        <v>14</v>
+      </c>
+      <c r="C661" t="s">
+        <v>12</v>
+      </c>
+      <c r="D661">
+        <v>20</v>
+      </c>
+      <c r="E661">
+        <v>23</v>
+      </c>
+      <c r="F661" t="s">
+        <v>26</v>
+      </c>
+      <c r="G661" t="s">
+        <v>190</v>
+      </c>
+      <c r="H661" s="8"/>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A662" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B662" s="9">
+        <v>14</v>
+      </c>
+      <c r="C662" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D662" s="9">
+        <v>1</v>
+      </c>
+      <c r="E662" s="9">
+        <v>4</v>
+      </c>
+      <c r="F662" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G662" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H662" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A663" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B663" s="9">
+        <v>14</v>
+      </c>
+      <c r="C663" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D663" s="9">
+        <v>2</v>
+      </c>
+      <c r="E663" s="9">
+        <v>81</v>
+      </c>
+      <c r="F663" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G663" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H663" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A664" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B664" s="9">
+        <v>14</v>
+      </c>
+      <c r="C664" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D664" s="9">
+        <v>3</v>
+      </c>
+      <c r="E664" s="9">
+        <v>63</v>
+      </c>
+      <c r="F664" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G664" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H664" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A665" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B665" s="9">
+        <v>14</v>
+      </c>
+      <c r="C665" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D665" s="9">
+        <v>4</v>
+      </c>
+      <c r="E665" s="9">
+        <v>16</v>
+      </c>
+      <c r="F665" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G665" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H665" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A666" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B666" s="9">
+        <v>14</v>
+      </c>
+      <c r="C666" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D666" s="9">
+        <v>5</v>
+      </c>
+      <c r="E666" s="9">
+        <v>14</v>
+      </c>
+      <c r="F666" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G666" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H666" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A667" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B667" s="9">
+        <v>14</v>
+      </c>
+      <c r="C667" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D667" s="9">
+        <v>6</v>
+      </c>
+      <c r="E667" s="9">
+        <v>5</v>
+      </c>
+      <c r="F667" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G667" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H667" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A668" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B668" s="9">
+        <v>14</v>
+      </c>
+      <c r="C668" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D668" s="9">
+        <v>7</v>
+      </c>
+      <c r="E668" s="9">
+        <v>18</v>
+      </c>
+      <c r="F668" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G668" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H668" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A669" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B669" s="9">
+        <v>14</v>
+      </c>
+      <c r="C669" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D669" s="9">
+        <v>8</v>
+      </c>
+      <c r="E669" s="9">
+        <v>30</v>
+      </c>
+      <c r="F669" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G669" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H669" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A670" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B670" s="9">
+        <v>14</v>
+      </c>
+      <c r="C670" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D670" s="9">
+        <v>9</v>
+      </c>
+      <c r="E670" s="9">
+        <v>1</v>
+      </c>
+      <c r="F670" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G670" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H670" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A671" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B671" s="9">
+        <v>14</v>
+      </c>
+      <c r="C671" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D671" s="9">
+        <v>10</v>
+      </c>
+      <c r="E671" s="9">
+        <v>12</v>
+      </c>
+      <c r="F671" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G671" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H671" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A672" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B672" s="9">
+        <v>14</v>
+      </c>
+      <c r="C672" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D672" s="9">
+        <v>11</v>
+      </c>
+      <c r="E672" s="9">
+        <v>6</v>
+      </c>
+      <c r="F672" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G672" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H672" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A673" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B673" s="9">
+        <v>14</v>
+      </c>
+      <c r="C673" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D673" s="9">
+        <v>12</v>
+      </c>
+      <c r="E673" s="9">
+        <v>44</v>
+      </c>
+      <c r="F673" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G673" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H673" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A674" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B674" s="9">
+        <v>14</v>
+      </c>
+      <c r="C674" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D674" s="9">
+        <v>13</v>
+      </c>
+      <c r="E674" s="9">
+        <v>27</v>
+      </c>
+      <c r="F674" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G674" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H674" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A675" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B675" s="9">
+        <v>14</v>
+      </c>
+      <c r="C675" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D675" s="9">
+        <v>14</v>
+      </c>
+      <c r="E675" s="9">
+        <v>55</v>
+      </c>
+      <c r="F675" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G675" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H675" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A676" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B676" s="9">
+        <v>14</v>
+      </c>
+      <c r="C676" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D676" s="9">
+        <v>15</v>
+      </c>
+      <c r="E676" s="9">
+        <v>23</v>
+      </c>
+      <c r="F676" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G676" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H676" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A677" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B677" s="9">
+        <v>14</v>
+      </c>
+      <c r="C677" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D677" s="9">
+        <v>16</v>
+      </c>
+      <c r="E677" s="9">
+        <v>31</v>
+      </c>
+      <c r="F677" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G677" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H677" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A678" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B678" s="9">
+        <v>14</v>
+      </c>
+      <c r="C678" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D678" s="9">
+        <v>17</v>
+      </c>
+      <c r="E678" s="9">
+        <v>22</v>
+      </c>
+      <c r="F678" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G678" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H678" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A679" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B679" s="9">
+        <v>14</v>
+      </c>
+      <c r="C679" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D679" s="9">
+        <v>18</v>
+      </c>
+      <c r="E679" s="9">
+        <v>43</v>
+      </c>
+      <c r="F679" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G679" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H679" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A680" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B680" s="9">
+        <v>14</v>
+      </c>
+      <c r="C680" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D680" s="9">
+        <v>19</v>
+      </c>
+      <c r="E680" s="9">
+        <v>10</v>
+      </c>
+      <c r="F680" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G680" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H680" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A681" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B681" s="9">
+        <v>14</v>
+      </c>
+      <c r="C681" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D681" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E681" s="9">
+        <v>87</v>
+      </c>
+      <c r="F681" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G681" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H681" s="9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H561" xr:uid="{247AF3E6-8BD7-40DE-ACC7-21D4F916BD21}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19526,7 +24602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBA989A-6AF3-4DE7-8F02-8EEC97A7AF0E}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
